--- a/python/Codice_Progetto/Certificati_Euramet_Completi/Default.xlsx
+++ b/python/Codice_Progetto/Certificati_Euramet_Completi/Default.xlsx
@@ -9971,7 +9971,7 @@
       </c>
       <c r="B63" s="526" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C63" s="52" t="n"/>
@@ -9984,7 +9984,7 @@
       </c>
       <c r="B64" s="54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C64" s="52" t="n"/>
@@ -9997,7 +9997,7 @@
       </c>
       <c r="B65" s="54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C65" s="52" t="inlineStr">
@@ -10014,7 +10014,7 @@
       </c>
       <c r="B66" s="54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C66" s="52" t="inlineStr">
@@ -10031,7 +10031,7 @@
       </c>
       <c r="B67" s="54" t="inlineStr">
         <is>
-          <t>tre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="B68" s="54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C68" s="52" t="inlineStr">
@@ -10070,7 +10070,7 @@
       </c>
       <c r="B69" s="54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C69" s="52" t="inlineStr">
@@ -10088,7 +10088,7 @@
       </c>
       <c r="B70" s="54" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C70" s="52" t="inlineStr">

--- a/python/Codice_Progetto/Certificati_Euramet_Completi/Default.xlsx
+++ b/python/Codice_Progetto/Certificati_Euramet_Completi/Default.xlsx
@@ -5108,7 +5108,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="0"/>
   <cols>
     <col width="9" customWidth="1" style="363" min="1" max="1"/>
     <col width="10.33203125" customWidth="1" style="363" min="2" max="2"/>
@@ -5312,16 +5312,16 @@
         <v>837</v>
       </c>
       <c r="E7" s="419" t="n">
-        <v>989</v>
+        <v>0</v>
       </c>
       <c r="F7" s="419" t="n">
-        <v>-0.3</v>
+        <v>-157.0411782090434</v>
       </c>
       <c r="G7" s="419" t="n">
-        <v>-2.4</v>
+        <v>-1.3734</v>
       </c>
       <c r="H7" s="420" t="n">
-        <v>2.42215</v>
+        <v>0.001</v>
       </c>
       <c r="I7" s="364">
         <f>(H7-$E$5)+$H$2</f>
@@ -5381,16 +5381,16 @@
         <v>837</v>
       </c>
       <c r="E8" s="339" t="n">
-        <v>883</v>
+        <v>0</v>
       </c>
       <c r="F8" s="339" t="n">
-        <v>257</v>
+        <v>-156.5579745837849</v>
       </c>
       <c r="G8" s="339" t="n">
-        <v>-253.9</v>
+        <v>-1.1772</v>
       </c>
       <c r="H8" s="422" t="n">
-        <v>1.90669</v>
+        <v>0.001</v>
       </c>
       <c r="I8" s="365">
         <f>(H8-$E$5)+$H$2</f>
@@ -5446,11 +5446,21 @@
         <f>SetPnt_N_0</f>
         <v/>
       </c>
-      <c r="D9" s="421" t="n"/>
-      <c r="E9" s="339" t="n"/>
-      <c r="F9" s="339" t="n"/>
-      <c r="G9" s="339" t="n"/>
-      <c r="H9" s="422" t="n"/>
+      <c r="D9" s="421" t="n">
+        <v>837</v>
+      </c>
+      <c r="E9" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="339" t="n">
+        <v>-156.5579745837849</v>
+      </c>
+      <c r="G9" s="339" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H9" s="422" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I9" s="365">
         <f>(H9-$E$5)+$H$2</f>
         <v/>
@@ -5505,11 +5515,21 @@
         <f>C_Tar_min</f>
         <v/>
       </c>
-      <c r="D10" s="421" t="n"/>
-      <c r="E10" s="339" t="n"/>
-      <c r="F10" s="339" t="n"/>
-      <c r="G10" s="339" t="n"/>
-      <c r="H10" s="422" t="n"/>
+      <c r="D10" s="421" t="n">
+        <v>837</v>
+      </c>
+      <c r="E10" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="339" t="n">
+        <v>-156.5579745837849</v>
+      </c>
+      <c r="G10" s="339" t="n">
+        <v>-1.3734</v>
+      </c>
+      <c r="H10" s="422" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I10" s="365">
         <f>(H10-$E$5)+$H$2</f>
         <v/>
@@ -5564,11 +5584,21 @@
         <f>SetPnt_N_0</f>
         <v/>
       </c>
-      <c r="D11" s="421" t="n"/>
-      <c r="E11" s="339" t="n"/>
-      <c r="F11" s="339" t="n"/>
-      <c r="G11" s="339" t="n"/>
-      <c r="H11" s="422" t="n"/>
+      <c r="D11" s="421" t="n">
+        <v>837</v>
+      </c>
+      <c r="E11" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="339" t="n">
+        <v>-156.5579745837849</v>
+      </c>
+      <c r="G11" s="339" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H11" s="422" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I11" s="365">
         <f>(H11-$E$5)+$H$2</f>
         <v/>
@@ -5623,11 +5653,21 @@
         <f>C_Tar_min</f>
         <v/>
       </c>
-      <c r="D12" s="421" t="n"/>
-      <c r="E12" s="339" t="n"/>
-      <c r="F12" s="339" t="n"/>
-      <c r="G12" s="339" t="n"/>
-      <c r="H12" s="422" t="n"/>
+      <c r="D12" s="421" t="n">
+        <v>837</v>
+      </c>
+      <c r="E12" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="339" t="n">
+        <v>-156.5579745837849</v>
+      </c>
+      <c r="G12" s="339" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H12" s="422" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I12" s="365">
         <f>(H12-$E$5)+$H$2</f>
         <v/>
@@ -5682,11 +5722,21 @@
         <f>SetPnt_N_0</f>
         <v/>
       </c>
-      <c r="D13" s="423" t="n"/>
-      <c r="E13" s="343" t="n"/>
-      <c r="F13" s="343" t="n"/>
-      <c r="G13" s="343" t="n"/>
-      <c r="H13" s="424" t="n"/>
+      <c r="D13" s="423" t="n">
+        <v>837</v>
+      </c>
+      <c r="E13" s="343" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="343" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G13" s="343" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H13" s="424" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I13" s="364">
         <f>(H13-$E$5)+$H$2</f>
         <v/>
@@ -5741,11 +5791,21 @@
         <f>SetPnt_N_1</f>
         <v/>
       </c>
-      <c r="D14" s="425" t="n"/>
-      <c r="E14" s="344" t="n"/>
-      <c r="F14" s="344" t="n"/>
-      <c r="G14" s="344" t="n"/>
-      <c r="H14" s="426" t="n"/>
+      <c r="D14" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E14" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="344" t="n">
+        <v>-156.5579745837849</v>
+      </c>
+      <c r="G14" s="344" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H14" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I14" s="365">
         <f>(H14-$E$5)+$H$2</f>
         <v/>
@@ -5800,11 +5860,21 @@
         <f>SetPnt_N_2</f>
         <v/>
       </c>
-      <c r="D15" s="425" t="n"/>
-      <c r="E15" s="344" t="n"/>
-      <c r="F15" s="344" t="n"/>
-      <c r="G15" s="344" t="n"/>
-      <c r="H15" s="426" t="n"/>
+      <c r="D15" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E15" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="344" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G15" s="344" t="n">
+        <v>-1.3734</v>
+      </c>
+      <c r="H15" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I15" s="365">
         <f>(H15-$E$5)+$H$2</f>
         <v/>
@@ -5859,11 +5929,21 @@
         <f>SetPnt_N_3</f>
         <v/>
       </c>
-      <c r="D16" s="425" t="n"/>
-      <c r="E16" s="344" t="n"/>
-      <c r="F16" s="344" t="n"/>
-      <c r="G16" s="344" t="n"/>
-      <c r="H16" s="426" t="n"/>
+      <c r="D16" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E16" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="344" t="n">
+        <v>-156.5579745837849</v>
+      </c>
+      <c r="G16" s="344" t="n">
+        <v>-1.3734</v>
+      </c>
+      <c r="H16" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I16" s="365">
         <f>(H16-$E$5)+$H$2</f>
         <v/>
@@ -5918,11 +5998,21 @@
         <f>SetPnt_N_4</f>
         <v/>
       </c>
-      <c r="D17" s="425" t="n"/>
-      <c r="E17" s="344" t="n"/>
-      <c r="F17" s="344" t="n"/>
-      <c r="G17" s="344" t="n"/>
-      <c r="H17" s="426" t="n"/>
+      <c r="D17" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E17" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="344" t="n">
+        <v>-156.5579745837849</v>
+      </c>
+      <c r="G17" s="344" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H17" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I17" s="365">
         <f>(H17-$E$5)+$H$2</f>
         <v/>
@@ -5977,11 +6067,21 @@
         <f>SetPnt_N_5</f>
         <v/>
       </c>
-      <c r="D18" s="425" t="n"/>
-      <c r="E18" s="344" t="n"/>
-      <c r="F18" s="344" t="n"/>
-      <c r="G18" s="344" t="n"/>
-      <c r="H18" s="426" t="n"/>
+      <c r="D18" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E18" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="344" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G18" s="344" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H18" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I18" s="365">
         <f>(H18-$E$5)+$H$2</f>
         <v/>
@@ -6036,11 +6136,21 @@
         <f>SetPnt_N_0</f>
         <v/>
       </c>
-      <c r="D19" s="423" t="n"/>
-      <c r="E19" s="343" t="n"/>
-      <c r="F19" s="343" t="n"/>
-      <c r="G19" s="343" t="n"/>
-      <c r="H19" s="424" t="n"/>
+      <c r="D19" s="423" t="n">
+        <v>837</v>
+      </c>
+      <c r="E19" s="343" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="343" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G19" s="343" t="n">
+        <v>-1.3734</v>
+      </c>
+      <c r="H19" s="424" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I19" s="364">
         <f>(H19-$E$5)+$H$2</f>
         <v/>
@@ -6566,11 +6676,21 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D29" s="418" t="n"/>
-      <c r="E29" s="419" t="n"/>
-      <c r="F29" s="419" t="n"/>
-      <c r="G29" s="419" t="n"/>
-      <c r="H29" s="420" t="n"/>
+      <c r="D29" s="418" t="n">
+        <v>837</v>
+      </c>
+      <c r="E29" s="419" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="419" t="n">
+        <v>-156.5579745837849</v>
+      </c>
+      <c r="G29" s="419" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H29" s="420" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I29" s="364">
         <f>(H29-$E$27)+$H$2</f>
         <v/>
@@ -6625,11 +6745,21 @@
         <f>C_Tar_max</f>
         <v/>
       </c>
-      <c r="D30" s="421" t="n"/>
-      <c r="E30" s="339" t="n"/>
-      <c r="F30" s="339" t="n"/>
-      <c r="G30" s="339" t="n"/>
-      <c r="H30" s="422" t="n"/>
+      <c r="D30" s="421" t="n">
+        <v>837</v>
+      </c>
+      <c r="E30" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="339" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G30" s="339" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H30" s="422" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I30" s="365">
         <f>(H30-$E$27)+$H$2</f>
         <v/>
@@ -6684,11 +6814,21 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D31" s="421" t="n"/>
-      <c r="E31" s="339" t="n"/>
-      <c r="F31" s="339" t="n"/>
-      <c r="G31" s="339" t="n"/>
-      <c r="H31" s="422" t="n"/>
+      <c r="D31" s="421" t="n">
+        <v>837</v>
+      </c>
+      <c r="E31" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="339" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G31" s="339" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H31" s="422" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I31" s="365">
         <f>(H31-$E$27)+$H$2</f>
         <v/>
@@ -6743,11 +6883,21 @@
         <f>C_Tar_max</f>
         <v/>
       </c>
-      <c r="D32" s="421" t="n"/>
-      <c r="E32" s="339" t="n"/>
-      <c r="F32" s="339" t="n"/>
-      <c r="G32" s="339" t="n"/>
-      <c r="H32" s="422" t="n"/>
+      <c r="D32" s="421" t="n">
+        <v>837</v>
+      </c>
+      <c r="E32" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="339" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G32" s="339" t="n">
+        <v>-1.3734</v>
+      </c>
+      <c r="H32" s="422" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I32" s="365">
         <f>(H32-$E$27)+$H$2</f>
         <v/>
@@ -6802,11 +6952,21 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D33" s="421" t="n"/>
-      <c r="E33" s="339" t="n"/>
-      <c r="F33" s="339" t="n"/>
-      <c r="G33" s="339" t="n"/>
-      <c r="H33" s="422" t="n"/>
+      <c r="D33" s="421" t="n">
+        <v>837</v>
+      </c>
+      <c r="E33" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="339" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G33" s="339" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H33" s="422" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I33" s="365">
         <f>(H33-$E$27)+$H$2</f>
         <v/>
@@ -6861,11 +7021,21 @@
         <f>C_Tar_max</f>
         <v/>
       </c>
-      <c r="D34" s="421" t="n"/>
-      <c r="E34" s="339" t="n"/>
-      <c r="F34" s="339" t="n"/>
-      <c r="G34" s="339" t="n"/>
-      <c r="H34" s="422" t="n"/>
+      <c r="D34" s="421" t="n">
+        <v>837</v>
+      </c>
+      <c r="E34" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="339" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G34" s="339" t="n">
+        <v>-1.3734</v>
+      </c>
+      <c r="H34" s="422" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I34" s="365">
         <f>(H34-$E$27)+$H$2</f>
         <v/>
@@ -6920,11 +7090,21 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D35" s="423" t="n"/>
-      <c r="E35" s="343" t="n"/>
-      <c r="F35" s="343" t="n"/>
-      <c r="G35" s="343" t="n"/>
-      <c r="H35" s="424" t="n"/>
+      <c r="D35" s="423" t="n">
+        <v>837</v>
+      </c>
+      <c r="E35" s="343" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="343" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G35" s="343" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H35" s="424" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I35" s="364">
         <f>(H35-$E$27)+$H$2</f>
         <v/>
@@ -6979,11 +7159,21 @@
         <f>SetPnt_P_1</f>
         <v/>
       </c>
-      <c r="D36" s="425" t="n"/>
-      <c r="E36" s="344" t="n"/>
-      <c r="F36" s="344" t="n"/>
-      <c r="G36" s="344" t="n"/>
-      <c r="H36" s="426" t="n"/>
+      <c r="D36" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E36" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="344" t="n">
+        <v>-156.5579745837849</v>
+      </c>
+      <c r="G36" s="344" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H36" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I36" s="365">
         <f>(H36-$E$27)+$H$2</f>
         <v/>
@@ -7038,11 +7228,21 @@
         <f>SetPnt_P_2</f>
         <v/>
       </c>
-      <c r="D37" s="425" t="n"/>
-      <c r="E37" s="344" t="n"/>
-      <c r="F37" s="344" t="n"/>
-      <c r="G37" s="344" t="n"/>
-      <c r="H37" s="426" t="n"/>
+      <c r="D37" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E37" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="344" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G37" s="344" t="n">
+        <v>-1.3734</v>
+      </c>
+      <c r="H37" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I37" s="365">
         <f>(H37-$E$27)+$H$2</f>
         <v/>
@@ -7097,11 +7297,21 @@
         <f>SetPnt_P_3</f>
         <v/>
       </c>
-      <c r="D38" s="425" t="n"/>
-      <c r="E38" s="344" t="n"/>
-      <c r="F38" s="344" t="n"/>
-      <c r="G38" s="344" t="n"/>
-      <c r="H38" s="426" t="n"/>
+      <c r="D38" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E38" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="344" t="n">
+        <v>-156.5579745837849</v>
+      </c>
+      <c r="G38" s="344" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H38" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I38" s="365">
         <f>(H38-$E$27)+$H$2</f>
         <v/>
@@ -7156,11 +7366,21 @@
         <f>SetPnt_P_4</f>
         <v/>
       </c>
-      <c r="D39" s="425" t="n"/>
-      <c r="E39" s="344" t="n"/>
-      <c r="F39" s="344" t="n"/>
-      <c r="G39" s="344" t="n"/>
-      <c r="H39" s="426" t="n"/>
+      <c r="D39" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E39" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="344" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G39" s="344" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H39" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I39" s="365">
         <f>(H39-$E$27)+$H$2</f>
         <v/>
@@ -7215,11 +7435,21 @@
         <f>SetPnt_P_5</f>
         <v/>
       </c>
-      <c r="D40" s="425" t="n"/>
-      <c r="E40" s="344" t="n"/>
-      <c r="F40" s="344" t="n"/>
-      <c r="G40" s="344" t="n"/>
-      <c r="H40" s="426" t="n"/>
+      <c r="D40" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E40" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="344" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G40" s="344" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H40" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I40" s="365">
         <f>(H40-$E$27)+$H$2</f>
         <v/>
@@ -7274,11 +7504,21 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D41" s="423" t="n"/>
-      <c r="E41" s="343" t="n"/>
-      <c r="F41" s="343" t="n"/>
-      <c r="G41" s="343" t="n"/>
-      <c r="H41" s="424" t="n"/>
+      <c r="D41" s="423" t="n">
+        <v>837</v>
+      </c>
+      <c r="E41" s="343" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="343" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G41" s="343" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H41" s="424" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I41" s="364">
         <f>(H41-$E$27)+$H$2</f>
         <v/>
@@ -8619,11 +8859,11 @@
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="B50:H51"/>
     <mergeCell ref="B60:B61"/>
-    <mergeCell ref="G60:H60"/>
     <mergeCell ref="A74:A85"/>
     <mergeCell ref="C74:D74"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="E60:F60"/>
     <mergeCell ref="A60:A71"/>
-    <mergeCell ref="E60:F60"/>
     <mergeCell ref="E74:F74"/>
     <mergeCell ref="G74:H74"/>
     <mergeCell ref="K50:Q51"/>
@@ -8701,7 +8941,7 @@
       <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col width="25.88671875" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
@@ -9997,7 +10237,7 @@
       </c>
       <c r="B65" s="54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>w</t>
         </is>
       </c>
       <c r="C65" s="52" t="inlineStr">
@@ -10014,7 +10254,7 @@
       </c>
       <c r="B66" s="54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ww</t>
         </is>
       </c>
       <c r="C66" s="52" t="inlineStr">
@@ -10031,7 +10271,7 @@
       </c>
       <c r="B67" s="54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>w</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -10053,7 +10293,7 @@
       </c>
       <c r="B68" s="54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>wwww</t>
         </is>
       </c>
       <c r="C68" s="52" t="inlineStr">
@@ -10070,7 +10310,7 @@
       </c>
       <c r="B69" s="54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>twwww</t>
         </is>
       </c>
       <c r="C69" s="52" t="inlineStr">
@@ -10292,7 +10532,7 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col width="15.5546875" customWidth="1" min="1" max="1"/>
     <col width="19.6640625" customWidth="1" min="2" max="2"/>
@@ -16515,7 +16755,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col width="14.33203125" customWidth="1" min="1" max="1"/>
     <col width="19.6640625" customWidth="1" min="2" max="2"/>
@@ -22712,7 +22952,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="13.5546875" customWidth="1" min="3" max="3"/>
@@ -23877,7 +24117,7 @@
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="3" customWidth="1" min="1" max="1"/>
     <col width="3.5546875" customWidth="1" min="2" max="2"/>
@@ -25385,8 +25625,8 @@
     <mergeCell ref="C7:L7"/>
     <mergeCell ref="F10:M10"/>
     <mergeCell ref="F16:M16"/>
+    <mergeCell ref="L102:L103"/>
     <mergeCell ref="G70:H70"/>
-    <mergeCell ref="L102:L103"/>
     <mergeCell ref="G97:H97"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="I70:J70"/>

--- a/python/Codice_Progetto/Certificati_Euramet_Completi/Default.xlsx
+++ b/python/Codice_Progetto/Certificati_Euramet_Completi/Default.xlsx
@@ -5108,7 +5108,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col width="9" customWidth="1" style="363" min="1" max="1"/>
     <col width="10.33203125" customWidth="1" style="363" min="2" max="2"/>
@@ -5312,16 +5312,16 @@
         <v>837</v>
       </c>
       <c r="E7" s="419" t="n">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="F7" s="419" t="n">
-        <v>-157.0411782090434</v>
+        <v>-0.3</v>
       </c>
       <c r="G7" s="419" t="n">
-        <v>-1.3734</v>
+        <v>-2.4</v>
       </c>
       <c r="H7" s="420" t="n">
-        <v>0.001</v>
+        <v>2.42215</v>
       </c>
       <c r="I7" s="364">
         <f>(H7-$E$5)+$H$2</f>
@@ -5381,16 +5381,16 @@
         <v>837</v>
       </c>
       <c r="E8" s="339" t="n">
-        <v>0</v>
+        <v>883</v>
       </c>
       <c r="F8" s="339" t="n">
-        <v>-156.5579745837849</v>
+        <v>257</v>
       </c>
       <c r="G8" s="339" t="n">
-        <v>-1.1772</v>
+        <v>-253.9</v>
       </c>
       <c r="H8" s="422" t="n">
-        <v>0.001</v>
+        <v>1.90669</v>
       </c>
       <c r="I8" s="365">
         <f>(H8-$E$5)+$H$2</f>
@@ -5446,21 +5446,11 @@
         <f>SetPnt_N_0</f>
         <v/>
       </c>
-      <c r="D9" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E9" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="339" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G9" s="339" t="n">
-        <v>-1.1772</v>
-      </c>
-      <c r="H9" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D9" s="421" t="n"/>
+      <c r="E9" s="339" t="n"/>
+      <c r="F9" s="339" t="n"/>
+      <c r="G9" s="339" t="n"/>
+      <c r="H9" s="422" t="n"/>
       <c r="I9" s="365">
         <f>(H9-$E$5)+$H$2</f>
         <v/>
@@ -5515,21 +5505,11 @@
         <f>C_Tar_min</f>
         <v/>
       </c>
-      <c r="D10" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E10" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="339" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G10" s="339" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H10" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D10" s="421" t="n"/>
+      <c r="E10" s="339" t="n"/>
+      <c r="F10" s="339" t="n"/>
+      <c r="G10" s="339" t="n"/>
+      <c r="H10" s="422" t="n"/>
       <c r="I10" s="365">
         <f>(H10-$E$5)+$H$2</f>
         <v/>
@@ -5584,21 +5564,11 @@
         <f>SetPnt_N_0</f>
         <v/>
       </c>
-      <c r="D11" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E11" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="339" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G11" s="339" t="n">
-        <v>-1.1772</v>
-      </c>
-      <c r="H11" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D11" s="421" t="n"/>
+      <c r="E11" s="339" t="n"/>
+      <c r="F11" s="339" t="n"/>
+      <c r="G11" s="339" t="n"/>
+      <c r="H11" s="422" t="n"/>
       <c r="I11" s="365">
         <f>(H11-$E$5)+$H$2</f>
         <v/>
@@ -5653,21 +5623,11 @@
         <f>C_Tar_min</f>
         <v/>
       </c>
-      <c r="D12" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E12" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="339" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G12" s="339" t="n">
-        <v>-1.1772</v>
-      </c>
-      <c r="H12" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D12" s="421" t="n"/>
+      <c r="E12" s="339" t="n"/>
+      <c r="F12" s="339" t="n"/>
+      <c r="G12" s="339" t="n"/>
+      <c r="H12" s="422" t="n"/>
       <c r="I12" s="365">
         <f>(H12-$E$5)+$H$2</f>
         <v/>
@@ -5722,21 +5682,11 @@
         <f>SetPnt_N_0</f>
         <v/>
       </c>
-      <c r="D13" s="423" t="n">
-        <v>837</v>
-      </c>
-      <c r="E13" s="343" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="343" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G13" s="343" t="n">
-        <v>-1.1772</v>
-      </c>
-      <c r="H13" s="424" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D13" s="423" t="n"/>
+      <c r="E13" s="343" t="n"/>
+      <c r="F13" s="343" t="n"/>
+      <c r="G13" s="343" t="n"/>
+      <c r="H13" s="424" t="n"/>
       <c r="I13" s="364">
         <f>(H13-$E$5)+$H$2</f>
         <v/>
@@ -5791,21 +5741,11 @@
         <f>SetPnt_N_1</f>
         <v/>
       </c>
-      <c r="D14" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E14" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="344" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G14" s="344" t="n">
-        <v>-1.1772</v>
-      </c>
-      <c r="H14" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D14" s="425" t="n"/>
+      <c r="E14" s="344" t="n"/>
+      <c r="F14" s="344" t="n"/>
+      <c r="G14" s="344" t="n"/>
+      <c r="H14" s="426" t="n"/>
       <c r="I14" s="365">
         <f>(H14-$E$5)+$H$2</f>
         <v/>
@@ -5860,21 +5800,11 @@
         <f>SetPnt_N_2</f>
         <v/>
       </c>
-      <c r="D15" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E15" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="344" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G15" s="344" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H15" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D15" s="425" t="n"/>
+      <c r="E15" s="344" t="n"/>
+      <c r="F15" s="344" t="n"/>
+      <c r="G15" s="344" t="n"/>
+      <c r="H15" s="426" t="n"/>
       <c r="I15" s="365">
         <f>(H15-$E$5)+$H$2</f>
         <v/>
@@ -5929,21 +5859,11 @@
         <f>SetPnt_N_3</f>
         <v/>
       </c>
-      <c r="D16" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E16" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="344" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G16" s="344" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H16" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D16" s="425" t="n"/>
+      <c r="E16" s="344" t="n"/>
+      <c r="F16" s="344" t="n"/>
+      <c r="G16" s="344" t="n"/>
+      <c r="H16" s="426" t="n"/>
       <c r="I16" s="365">
         <f>(H16-$E$5)+$H$2</f>
         <v/>
@@ -5998,21 +5918,11 @@
         <f>SetPnt_N_4</f>
         <v/>
       </c>
-      <c r="D17" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E17" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="344" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G17" s="344" t="n">
-        <v>-1.1772</v>
-      </c>
-      <c r="H17" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D17" s="425" t="n"/>
+      <c r="E17" s="344" t="n"/>
+      <c r="F17" s="344" t="n"/>
+      <c r="G17" s="344" t="n"/>
+      <c r="H17" s="426" t="n"/>
       <c r="I17" s="365">
         <f>(H17-$E$5)+$H$2</f>
         <v/>
@@ -6067,21 +5977,11 @@
         <f>SetPnt_N_5</f>
         <v/>
       </c>
-      <c r="D18" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E18" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="344" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G18" s="344" t="n">
-        <v>-1.1772</v>
-      </c>
-      <c r="H18" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D18" s="425" t="n"/>
+      <c r="E18" s="344" t="n"/>
+      <c r="F18" s="344" t="n"/>
+      <c r="G18" s="344" t="n"/>
+      <c r="H18" s="426" t="n"/>
       <c r="I18" s="365">
         <f>(H18-$E$5)+$H$2</f>
         <v/>
@@ -6136,21 +6036,11 @@
         <f>SetPnt_N_0</f>
         <v/>
       </c>
-      <c r="D19" s="423" t="n">
-        <v>837</v>
-      </c>
-      <c r="E19" s="343" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="343" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G19" s="343" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H19" s="424" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D19" s="423" t="n"/>
+      <c r="E19" s="343" t="n"/>
+      <c r="F19" s="343" t="n"/>
+      <c r="G19" s="343" t="n"/>
+      <c r="H19" s="424" t="n"/>
       <c r="I19" s="364">
         <f>(H19-$E$5)+$H$2</f>
         <v/>
@@ -6676,21 +6566,11 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D29" s="418" t="n">
-        <v>837</v>
-      </c>
-      <c r="E29" s="419" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="419" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G29" s="419" t="n">
-        <v>-1.1772</v>
-      </c>
-      <c r="H29" s="420" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D29" s="418" t="n"/>
+      <c r="E29" s="419" t="n"/>
+      <c r="F29" s="419" t="n"/>
+      <c r="G29" s="419" t="n"/>
+      <c r="H29" s="420" t="n"/>
       <c r="I29" s="364">
         <f>(H29-$E$27)+$H$2</f>
         <v/>
@@ -6745,21 +6625,11 @@
         <f>C_Tar_max</f>
         <v/>
       </c>
-      <c r="D30" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E30" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="339" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G30" s="339" t="n">
-        <v>-1.1772</v>
-      </c>
-      <c r="H30" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D30" s="421" t="n"/>
+      <c r="E30" s="339" t="n"/>
+      <c r="F30" s="339" t="n"/>
+      <c r="G30" s="339" t="n"/>
+      <c r="H30" s="422" t="n"/>
       <c r="I30" s="365">
         <f>(H30-$E$27)+$H$2</f>
         <v/>
@@ -6814,21 +6684,11 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D31" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E31" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="339" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G31" s="339" t="n">
-        <v>-1.1772</v>
-      </c>
-      <c r="H31" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D31" s="421" t="n"/>
+      <c r="E31" s="339" t="n"/>
+      <c r="F31" s="339" t="n"/>
+      <c r="G31" s="339" t="n"/>
+      <c r="H31" s="422" t="n"/>
       <c r="I31" s="365">
         <f>(H31-$E$27)+$H$2</f>
         <v/>
@@ -6883,21 +6743,11 @@
         <f>C_Tar_max</f>
         <v/>
       </c>
-      <c r="D32" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E32" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="339" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G32" s="339" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H32" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D32" s="421" t="n"/>
+      <c r="E32" s="339" t="n"/>
+      <c r="F32" s="339" t="n"/>
+      <c r="G32" s="339" t="n"/>
+      <c r="H32" s="422" t="n"/>
       <c r="I32" s="365">
         <f>(H32-$E$27)+$H$2</f>
         <v/>
@@ -6952,21 +6802,11 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D33" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E33" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="339" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G33" s="339" t="n">
-        <v>-1.1772</v>
-      </c>
-      <c r="H33" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D33" s="421" t="n"/>
+      <c r="E33" s="339" t="n"/>
+      <c r="F33" s="339" t="n"/>
+      <c r="G33" s="339" t="n"/>
+      <c r="H33" s="422" t="n"/>
       <c r="I33" s="365">
         <f>(H33-$E$27)+$H$2</f>
         <v/>
@@ -7021,21 +6861,11 @@
         <f>C_Tar_max</f>
         <v/>
       </c>
-      <c r="D34" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E34" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="339" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G34" s="339" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H34" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D34" s="421" t="n"/>
+      <c r="E34" s="339" t="n"/>
+      <c r="F34" s="339" t="n"/>
+      <c r="G34" s="339" t="n"/>
+      <c r="H34" s="422" t="n"/>
       <c r="I34" s="365">
         <f>(H34-$E$27)+$H$2</f>
         <v/>
@@ -7090,21 +6920,11 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D35" s="423" t="n">
-        <v>837</v>
-      </c>
-      <c r="E35" s="343" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="343" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G35" s="343" t="n">
-        <v>-1.1772</v>
-      </c>
-      <c r="H35" s="424" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D35" s="423" t="n"/>
+      <c r="E35" s="343" t="n"/>
+      <c r="F35" s="343" t="n"/>
+      <c r="G35" s="343" t="n"/>
+      <c r="H35" s="424" t="n"/>
       <c r="I35" s="364">
         <f>(H35-$E$27)+$H$2</f>
         <v/>
@@ -7159,21 +6979,11 @@
         <f>SetPnt_P_1</f>
         <v/>
       </c>
-      <c r="D36" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E36" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="344" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G36" s="344" t="n">
-        <v>-1.1772</v>
-      </c>
-      <c r="H36" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D36" s="425" t="n"/>
+      <c r="E36" s="344" t="n"/>
+      <c r="F36" s="344" t="n"/>
+      <c r="G36" s="344" t="n"/>
+      <c r="H36" s="426" t="n"/>
       <c r="I36" s="365">
         <f>(H36-$E$27)+$H$2</f>
         <v/>
@@ -7228,21 +7038,11 @@
         <f>SetPnt_P_2</f>
         <v/>
       </c>
-      <c r="D37" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E37" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="344" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G37" s="344" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H37" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D37" s="425" t="n"/>
+      <c r="E37" s="344" t="n"/>
+      <c r="F37" s="344" t="n"/>
+      <c r="G37" s="344" t="n"/>
+      <c r="H37" s="426" t="n"/>
       <c r="I37" s="365">
         <f>(H37-$E$27)+$H$2</f>
         <v/>
@@ -7297,21 +7097,11 @@
         <f>SetPnt_P_3</f>
         <v/>
       </c>
-      <c r="D38" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E38" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="344" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G38" s="344" t="n">
-        <v>-1.1772</v>
-      </c>
-      <c r="H38" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D38" s="425" t="n"/>
+      <c r="E38" s="344" t="n"/>
+      <c r="F38" s="344" t="n"/>
+      <c r="G38" s="344" t="n"/>
+      <c r="H38" s="426" t="n"/>
       <c r="I38" s="365">
         <f>(H38-$E$27)+$H$2</f>
         <v/>
@@ -7366,21 +7156,11 @@
         <f>SetPnt_P_4</f>
         <v/>
       </c>
-      <c r="D39" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E39" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="344" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G39" s="344" t="n">
-        <v>-1.1772</v>
-      </c>
-      <c r="H39" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D39" s="425" t="n"/>
+      <c r="E39" s="344" t="n"/>
+      <c r="F39" s="344" t="n"/>
+      <c r="G39" s="344" t="n"/>
+      <c r="H39" s="426" t="n"/>
       <c r="I39" s="365">
         <f>(H39-$E$27)+$H$2</f>
         <v/>
@@ -7435,21 +7215,11 @@
         <f>SetPnt_P_5</f>
         <v/>
       </c>
-      <c r="D40" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E40" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="344" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G40" s="344" t="n">
-        <v>-1.1772</v>
-      </c>
-      <c r="H40" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D40" s="425" t="n"/>
+      <c r="E40" s="344" t="n"/>
+      <c r="F40" s="344" t="n"/>
+      <c r="G40" s="344" t="n"/>
+      <c r="H40" s="426" t="n"/>
       <c r="I40" s="365">
         <f>(H40-$E$27)+$H$2</f>
         <v/>
@@ -7504,21 +7274,11 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D41" s="423" t="n">
-        <v>837</v>
-      </c>
-      <c r="E41" s="343" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="343" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G41" s="343" t="n">
-        <v>-1.1772</v>
-      </c>
-      <c r="H41" s="424" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D41" s="423" t="n"/>
+      <c r="E41" s="343" t="n"/>
+      <c r="F41" s="343" t="n"/>
+      <c r="G41" s="343" t="n"/>
+      <c r="H41" s="424" t="n"/>
       <c r="I41" s="364">
         <f>(H41-$E$27)+$H$2</f>
         <v/>
@@ -8859,11 +8619,11 @@
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="B50:H51"/>
     <mergeCell ref="B60:B61"/>
+    <mergeCell ref="G60:H60"/>
     <mergeCell ref="A74:A85"/>
     <mergeCell ref="C74:D74"/>
-    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="A60:A71"/>
     <mergeCell ref="E60:F60"/>
-    <mergeCell ref="A60:A71"/>
     <mergeCell ref="E74:F74"/>
     <mergeCell ref="G74:H74"/>
     <mergeCell ref="K50:Q51"/>
@@ -8941,7 +8701,7 @@
       <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col width="25.88671875" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
@@ -10237,7 +9997,7 @@
       </c>
       <c r="B65" s="54" t="inlineStr">
         <is>
-          <t>w</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C65" s="52" t="inlineStr">
@@ -10254,7 +10014,7 @@
       </c>
       <c r="B66" s="54" t="inlineStr">
         <is>
-          <t>ww</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C66" s="52" t="inlineStr">
@@ -10271,7 +10031,7 @@
       </c>
       <c r="B67" s="54" t="inlineStr">
         <is>
-          <t>w</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -10293,7 +10053,7 @@
       </c>
       <c r="B68" s="54" t="inlineStr">
         <is>
-          <t>wwww</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C68" s="52" t="inlineStr">
@@ -10310,7 +10070,7 @@
       </c>
       <c r="B69" s="54" t="inlineStr">
         <is>
-          <t>twwww</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C69" s="52" t="inlineStr">
@@ -10532,7 +10292,7 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col width="15.5546875" customWidth="1" min="1" max="1"/>
     <col width="19.6640625" customWidth="1" min="2" max="2"/>
@@ -16755,7 +16515,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col width="14.33203125" customWidth="1" min="1" max="1"/>
     <col width="19.6640625" customWidth="1" min="2" max="2"/>
@@ -22952,7 +22712,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="13.5546875" customWidth="1" min="3" max="3"/>
@@ -24117,7 +23877,7 @@
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col width="3" customWidth="1" min="1" max="1"/>
     <col width="3.5546875" customWidth="1" min="2" max="2"/>
@@ -25625,8 +25385,8 @@
     <mergeCell ref="C7:L7"/>
     <mergeCell ref="F10:M10"/>
     <mergeCell ref="F16:M16"/>
+    <mergeCell ref="G70:H70"/>
     <mergeCell ref="L102:L103"/>
-    <mergeCell ref="G70:H70"/>
     <mergeCell ref="G97:H97"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="I70:J70"/>

--- a/python/Codice_Progetto/Certificati_Euramet_Completi/Default.xlsx
+++ b/python/Codice_Progetto/Certificati_Euramet_Completi/Default.xlsx
@@ -5108,7 +5108,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="0"/>
   <cols>
     <col width="9" customWidth="1" style="363" min="1" max="1"/>
     <col width="10.33203125" customWidth="1" style="363" min="2" max="2"/>
@@ -6566,11 +6566,21 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D29" s="418" t="n"/>
-      <c r="E29" s="419" t="n"/>
-      <c r="F29" s="419" t="n"/>
-      <c r="G29" s="419" t="n"/>
-      <c r="H29" s="420" t="n"/>
+      <c r="D29" s="418" t="n">
+        <v>837</v>
+      </c>
+      <c r="E29" s="419" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="419" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G29" s="419" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H29" s="420" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I29" s="364">
         <f>(H29-$E$27)+$H$2</f>
         <v/>
@@ -6625,11 +6635,21 @@
         <f>C_Tar_max</f>
         <v/>
       </c>
-      <c r="D30" s="421" t="n"/>
-      <c r="E30" s="339" t="n"/>
-      <c r="F30" s="339" t="n"/>
-      <c r="G30" s="339" t="n"/>
-      <c r="H30" s="422" t="n"/>
+      <c r="D30" s="421" t="n">
+        <v>837</v>
+      </c>
+      <c r="E30" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="339" t="n">
+        <v>-156.5579745837849</v>
+      </c>
+      <c r="G30" s="339" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H30" s="422" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I30" s="365">
         <f>(H30-$E$27)+$H$2</f>
         <v/>
@@ -6684,11 +6704,21 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D31" s="421" t="n"/>
-      <c r="E31" s="339" t="n"/>
-      <c r="F31" s="339" t="n"/>
-      <c r="G31" s="339" t="n"/>
-      <c r="H31" s="422" t="n"/>
+      <c r="D31" s="421" t="n">
+        <v>837</v>
+      </c>
+      <c r="E31" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="339" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G31" s="339" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H31" s="422" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I31" s="365">
         <f>(H31-$E$27)+$H$2</f>
         <v/>
@@ -8619,11 +8649,11 @@
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="B50:H51"/>
     <mergeCell ref="B60:B61"/>
-    <mergeCell ref="G60:H60"/>
     <mergeCell ref="A74:A85"/>
     <mergeCell ref="C74:D74"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="E60:F60"/>
     <mergeCell ref="A60:A71"/>
-    <mergeCell ref="E60:F60"/>
     <mergeCell ref="E74:F74"/>
     <mergeCell ref="G74:H74"/>
     <mergeCell ref="K50:Q51"/>
@@ -8701,7 +8731,7 @@
       <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col width="25.88671875" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
@@ -10292,7 +10322,7 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col width="15.5546875" customWidth="1" min="1" max="1"/>
     <col width="19.6640625" customWidth="1" min="2" max="2"/>
@@ -16515,7 +16545,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col width="14.33203125" customWidth="1" min="1" max="1"/>
     <col width="19.6640625" customWidth="1" min="2" max="2"/>
@@ -22712,7 +22742,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="13.5546875" customWidth="1" min="3" max="3"/>
@@ -23877,7 +23907,7 @@
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="3" customWidth="1" min="1" max="1"/>
     <col width="3.5546875" customWidth="1" min="2" max="2"/>
@@ -25385,8 +25415,8 @@
     <mergeCell ref="C7:L7"/>
     <mergeCell ref="F10:M10"/>
     <mergeCell ref="F16:M16"/>
+    <mergeCell ref="L102:L103"/>
     <mergeCell ref="G70:H70"/>
-    <mergeCell ref="L102:L103"/>
     <mergeCell ref="G97:H97"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="I70:J70"/>

--- a/python/Codice_Progetto/Certificati_Euramet_Completi/Default.xlsx
+++ b/python/Codice_Progetto/Certificati_Euramet_Completi/Default.xlsx
@@ -5312,13 +5312,13 @@
         <v>837</v>
       </c>
       <c r="E7" s="419" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F7" s="419" t="n">
-        <v>-156.5579745837849</v>
+        <v>-157.0411782090434</v>
       </c>
       <c r="G7" s="419" t="n">
-        <v>-1.3734</v>
+        <v>-1.5696</v>
       </c>
       <c r="H7" s="420" t="n">
         <v>0.001</v>
@@ -5381,10 +5381,10 @@
         <v>837</v>
       </c>
       <c r="E8" s="339" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F8" s="339" t="n">
-        <v>-156.5579745837849</v>
+        <v>-157.0411782090434</v>
       </c>
       <c r="G8" s="339" t="n">
         <v>-1.5696</v>
@@ -5450,7 +5450,7 @@
         <v>837</v>
       </c>
       <c r="E9" s="339" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F9" s="339" t="n">
         <v>-156.5579745837849</v>
@@ -5519,13 +5519,13 @@
         <v>837</v>
       </c>
       <c r="E10" s="339" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F10" s="339" t="n">
         <v>-156.5579745837849</v>
       </c>
       <c r="G10" s="339" t="n">
-        <v>-1.3734</v>
+        <v>-1.5696</v>
       </c>
       <c r="H10" s="422" t="n">
         <v>0.001</v>
@@ -5588,7 +5588,7 @@
         <v>837</v>
       </c>
       <c r="E11" s="339" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F11" s="339" t="n">
         <v>-156.5579745837849</v>
@@ -5657,10 +5657,10 @@
         <v>837</v>
       </c>
       <c r="E12" s="339" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F12" s="339" t="n">
-        <v>-157.0411782090434</v>
+        <v>-156.5579745837849</v>
       </c>
       <c r="G12" s="339" t="n">
         <v>-1.5696</v>
@@ -5726,13 +5726,13 @@
         <v>837</v>
       </c>
       <c r="E13" s="343" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F13" s="343" t="n">
         <v>-156.5579745837849</v>
       </c>
       <c r="G13" s="343" t="n">
-        <v>-1.3734</v>
+        <v>-1.5696</v>
       </c>
       <c r="H13" s="424" t="n">
         <v>0.001</v>
@@ -5795,13 +5795,13 @@
         <v>837</v>
       </c>
       <c r="E14" s="344" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="F14" s="344" t="n">
         <v>-156.5579745837849</v>
       </c>
       <c r="G14" s="344" t="n">
-        <v>-1.3734</v>
+        <v>-1.5696</v>
       </c>
       <c r="H14" s="426" t="n">
         <v>0.001</v>
@@ -5864,13 +5864,13 @@
         <v>837</v>
       </c>
       <c r="E15" s="344" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F15" s="344" t="n">
         <v>-156.5579745837849</v>
       </c>
       <c r="G15" s="344" t="n">
-        <v>-1.3734</v>
+        <v>-1.5696</v>
       </c>
       <c r="H15" s="426" t="n">
         <v>0.001</v>
@@ -5933,10 +5933,10 @@
         <v>837</v>
       </c>
       <c r="E16" s="344" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="F16" s="344" t="n">
-        <v>-157.0411782090434</v>
+        <v>-156.5579745837849</v>
       </c>
       <c r="G16" s="344" t="n">
         <v>-1.5696</v>
@@ -6002,13 +6002,13 @@
         <v>837</v>
       </c>
       <c r="E17" s="344" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="F17" s="344" t="n">
         <v>-156.5579745837849</v>
       </c>
       <c r="G17" s="344" t="n">
-        <v>-1.3734</v>
+        <v>-1.5696</v>
       </c>
       <c r="H17" s="426" t="n">
         <v>0.001</v>
@@ -6071,10 +6071,10 @@
         <v>837</v>
       </c>
       <c r="E18" s="344" t="n">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="F18" s="344" t="n">
-        <v>-157.0411782090434</v>
+        <v>-156.5579745837849</v>
       </c>
       <c r="G18" s="344" t="n">
         <v>-1.5696</v>
@@ -6140,13 +6140,13 @@
         <v>837</v>
       </c>
       <c r="E19" s="343" t="n">
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="F19" s="343" t="n">
         <v>-156.5579745837849</v>
       </c>
       <c r="G19" s="343" t="n">
-        <v>-1.3734</v>
+        <v>-1.5696</v>
       </c>
       <c r="H19" s="424" t="n">
         <v>0.001</v>
@@ -6209,7 +6209,7 @@
         <v>837</v>
       </c>
       <c r="E20" s="344" t="n">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="F20" s="344" t="n">
         <v>-157.0411782090434</v>
@@ -6278,7 +6278,7 @@
         <v>837</v>
       </c>
       <c r="E21" s="344" t="n">
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="F21" s="344" t="n">
         <v>-156.5579745837849</v>
@@ -6347,10 +6347,10 @@
         <v>837</v>
       </c>
       <c r="E22" s="344" t="n">
-        <v>0</v>
+        <v>777</v>
       </c>
       <c r="F22" s="344" t="n">
-        <v>-157.0411782090434</v>
+        <v>-156.5579745837849</v>
       </c>
       <c r="G22" s="344" t="n">
         <v>-1.5696</v>
@@ -6416,7 +6416,7 @@
         <v>837</v>
       </c>
       <c r="E23" s="344" t="n">
-        <v>0</v>
+        <v>888</v>
       </c>
       <c r="F23" s="344" t="n">
         <v>-156.5579745837849</v>
@@ -6485,10 +6485,10 @@
         <v>837</v>
       </c>
       <c r="E24" s="348" t="n">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="F24" s="348" t="n">
-        <v>-156.5579745837849</v>
+        <v>-157.0411782090434</v>
       </c>
       <c r="G24" s="348" t="n">
         <v>-1.5696</v>
@@ -6554,13 +6554,13 @@
         <v>837</v>
       </c>
       <c r="E25" s="430" t="n">
-        <v>0</v>
+        <v>1111</v>
       </c>
       <c r="F25" s="430" t="n">
         <v>-156.5579745837849</v>
       </c>
       <c r="G25" s="430" t="n">
-        <v>-1.3734</v>
+        <v>-1.5696</v>
       </c>
       <c r="H25" s="431" t="n">
         <v>0.001</v>
@@ -6607,39 +6607,27 @@
       </c>
     </row>
     <row r="26" ht="14.4" customFormat="1" customHeight="1" s="327">
-      <c r="D26" s="327" t="n">
-        <v>837</v>
-      </c>
-      <c r="E26" s="327" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.001</v>
+      <c r="D26" s="327" t="inlineStr">
+        <is>
+          <t>Href</t>
+        </is>
+      </c>
+      <c r="E26" s="327">
+        <f>AVERAGE(E29,E31,E33,E35,E41,E47)</f>
+        <v/>
       </c>
       <c r="O26" s="505" t="n"/>
       <c r="R26" s="505" t="n"/>
     </row>
     <row r="27" ht="14.4" customFormat="1" customHeight="1" s="327">
-      <c r="D27" s="327" t="n">
-        <v>837</v>
-      </c>
-      <c r="E27" s="327" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.001</v>
+      <c r="D27" s="327" t="inlineStr">
+        <is>
+          <t>Zero</t>
+        </is>
+      </c>
+      <c r="E27" s="327">
+        <f>AVERAGE(H29,H31,H33,H35,H41,H47)</f>
+        <v/>
       </c>
       <c r="R27" s="505" t="n"/>
     </row>
@@ -6659,20 +6647,30 @@
           <t>Carico [N]</t>
         </is>
       </c>
-      <c r="D28" s="334" t="n">
-        <v>837</v>
-      </c>
-      <c r="E28" s="334" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="334" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G28" s="334" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H28" s="334" t="n">
-        <v>0.001</v>
+      <c r="D28" s="334" t="inlineStr">
+        <is>
+          <t>hm mozzo [mm]</t>
+        </is>
+      </c>
+      <c r="E28" s="334" t="inlineStr">
+        <is>
+          <t>hr ref [mm]</t>
+        </is>
+      </c>
+      <c r="F28" s="334" t="inlineStr">
+        <is>
+          <t>Laumas [N]</t>
+        </is>
+      </c>
+      <c r="G28" s="334" t="inlineStr">
+        <is>
+          <t>Torsiometro [Nm]</t>
+        </is>
+      </c>
+      <c r="H28" s="334" t="inlineStr">
+        <is>
+          <t>SG600 [V]</t>
+        </is>
       </c>
       <c r="I28" s="330" t="inlineStr">
         <is>
@@ -6742,13 +6740,13 @@
         <v>837</v>
       </c>
       <c r="E29" s="419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="419" t="n">
         <v>-156.5579745837849</v>
       </c>
       <c r="G29" s="419" t="n">
-        <v>-1.3734</v>
+        <v>-1.5696</v>
       </c>
       <c r="H29" s="420" t="n">
         <v>0.001</v>
@@ -6811,13 +6809,13 @@
         <v>837</v>
       </c>
       <c r="E30" s="339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" s="339" t="n">
         <v>-156.5579745837849</v>
       </c>
       <c r="G30" s="339" t="n">
-        <v>-1.3734</v>
+        <v>-1.5696</v>
       </c>
       <c r="H30" s="422" t="n">
         <v>0.001</v>
@@ -6880,13 +6878,13 @@
         <v>837</v>
       </c>
       <c r="E31" s="339" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31" s="339" t="n">
         <v>-156.5579745837849</v>
       </c>
       <c r="G31" s="339" t="n">
-        <v>-1.3734</v>
+        <v>-1.5696</v>
       </c>
       <c r="H31" s="422" t="n">
         <v>0.001</v>
@@ -6949,13 +6947,13 @@
         <v>837</v>
       </c>
       <c r="E32" s="339" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F32" s="339" t="n">
         <v>-156.5579745837849</v>
       </c>
       <c r="G32" s="339" t="n">
-        <v>-1.3734</v>
+        <v>-1.5696</v>
       </c>
       <c r="H32" s="422" t="n">
         <v>0.001</v>
@@ -7018,13 +7016,13 @@
         <v>837</v>
       </c>
       <c r="E33" s="339" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F33" s="339" t="n">
         <v>-156.5579745837849</v>
       </c>
       <c r="G33" s="339" t="n">
-        <v>-1.3734</v>
+        <v>-1.5696</v>
       </c>
       <c r="H33" s="422" t="n">
         <v>0.001</v>
@@ -7087,7 +7085,7 @@
         <v>837</v>
       </c>
       <c r="E34" s="339" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F34" s="339" t="n">
         <v>-156.5579745837849</v>
@@ -7156,13 +7154,13 @@
         <v>837</v>
       </c>
       <c r="E35" s="343" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F35" s="343" t="n">
-        <v>-156.5579745837849</v>
+        <v>-157.0411782090434</v>
       </c>
       <c r="G35" s="343" t="n">
-        <v>-1.3734</v>
+        <v>-1.5696</v>
       </c>
       <c r="H35" s="424" t="n">
         <v>0.001</v>
@@ -7225,7 +7223,7 @@
         <v>837</v>
       </c>
       <c r="E36" s="344" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F36" s="344" t="n">
         <v>-156.5579745837849</v>
@@ -7294,13 +7292,13 @@
         <v>837</v>
       </c>
       <c r="E37" s="344" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F37" s="344" t="n">
         <v>-156.5579745837849</v>
       </c>
       <c r="G37" s="344" t="n">
-        <v>-1.3734</v>
+        <v>-1.5696</v>
       </c>
       <c r="H37" s="426" t="n">
         <v>0.001</v>
@@ -7363,7 +7361,7 @@
         <v>837</v>
       </c>
       <c r="E38" s="344" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F38" s="344" t="n">
         <v>-156.5579745837849</v>
@@ -7432,13 +7430,13 @@
         <v>837</v>
       </c>
       <c r="E39" s="344" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F39" s="344" t="n">
         <v>-156.5579745837849</v>
       </c>
       <c r="G39" s="344" t="n">
-        <v>-1.3734</v>
+        <v>-1.5696</v>
       </c>
       <c r="H39" s="426" t="n">
         <v>0.001</v>
@@ -7501,7 +7499,7 @@
         <v>837</v>
       </c>
       <c r="E40" s="344" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F40" s="344" t="n">
         <v>-156.5579745837849</v>
@@ -7570,10 +7568,10 @@
         <v>837</v>
       </c>
       <c r="E41" s="343" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F41" s="343" t="n">
-        <v>-156.5579745837849</v>
+        <v>-157.0411782090434</v>
       </c>
       <c r="G41" s="343" t="n">
         <v>-1.5696</v>
@@ -7639,7 +7637,7 @@
         <v>837</v>
       </c>
       <c r="E42" s="344" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F42" s="344" t="n">
         <v>-156.5579745837849</v>
@@ -7708,10 +7706,10 @@
         <v>837</v>
       </c>
       <c r="E43" s="344" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F43" s="344" t="n">
-        <v>-157.0411782090434</v>
+        <v>-156.5579745837849</v>
       </c>
       <c r="G43" s="344" t="n">
         <v>-1.5696</v>
@@ -7777,13 +7775,13 @@
         <v>837</v>
       </c>
       <c r="E44" s="344" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F44" s="344" t="n">
         <v>-156.5579745837849</v>
       </c>
       <c r="G44" s="344" t="n">
-        <v>-1.3734</v>
+        <v>-1.5696</v>
       </c>
       <c r="H44" s="426" t="n">
         <v>0.001</v>
@@ -7846,7 +7844,7 @@
         <v>837</v>
       </c>
       <c r="E45" s="344" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F45" s="344" t="n">
         <v>-156.5579745837849</v>
@@ -7915,7 +7913,7 @@
         <v>837</v>
       </c>
       <c r="E46" s="344" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F46" s="344" t="n">
         <v>-156.5579745837849</v>
@@ -7984,10 +7982,10 @@
         <v>837</v>
       </c>
       <c r="E47" s="430" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F47" s="430" t="n">
-        <v>-157.0411782090434</v>
+        <v>-156.5579745837849</v>
       </c>
       <c r="G47" s="430" t="n">
         <v>-1.5696</v>
@@ -8036,39 +8034,8 @@
         <v/>
       </c>
     </row>
-    <row r="48" customFormat="1" s="327">
-      <c r="D48" t="n">
-        <v>837</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
+    <row r="48" customFormat="1" s="327"/>
     <row r="49" ht="14.4" customFormat="1" customHeight="1" s="327">
-      <c r="D49" t="n">
-        <v>837</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.001</v>
-      </c>
       <c r="I49" s="432" t="inlineStr">
         <is>
           <t>m ave [V/Nm]</t>
@@ -25778,8 +25745,8 @@
     <mergeCell ref="C7:L7"/>
     <mergeCell ref="F16:M16"/>
     <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G70:H70"/>
     <mergeCell ref="L102:L103"/>
-    <mergeCell ref="G70:H70"/>
     <mergeCell ref="G97:H97"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="I70:J70"/>

--- a/python/Codice_Progetto/Certificati_Euramet_Completi/Default.xlsx
+++ b/python/Codice_Progetto/Certificati_Euramet_Completi/Default.xlsx
@@ -5312,13 +5312,13 @@
         <v>837</v>
       </c>
       <c r="E7" s="419" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F7" s="419" t="n">
         <v>-157.0411782090434</v>
       </c>
       <c r="G7" s="419" t="n">
-        <v>-1.5696</v>
+        <v>-1.3734</v>
       </c>
       <c r="H7" s="420" t="n">
         <v>0.001</v>
@@ -5377,21 +5377,11 @@
         <f>C_Tar_min</f>
         <v/>
       </c>
-      <c r="D8" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E8" s="339" t="n">
-        <v>22</v>
-      </c>
-      <c r="F8" s="339" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G8" s="339" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H8" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D8" s="421" t="n"/>
+      <c r="E8" s="339" t="n"/>
+      <c r="F8" s="339" t="n"/>
+      <c r="G8" s="339" t="n"/>
+      <c r="H8" s="422" t="n"/>
       <c r="I8" s="365">
         <f>(H8-$E$5)+$H$2</f>
         <v/>
@@ -5446,21 +5436,11 @@
         <f>SetPnt_N_0</f>
         <v/>
       </c>
-      <c r="D9" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E9" s="339" t="n">
-        <v>33</v>
-      </c>
-      <c r="F9" s="339" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G9" s="339" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H9" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D9" s="421" t="n"/>
+      <c r="E9" s="339" t="n"/>
+      <c r="F9" s="339" t="n"/>
+      <c r="G9" s="339" t="n"/>
+      <c r="H9" s="422" t="n"/>
       <c r="I9" s="365">
         <f>(H9-$E$5)+$H$2</f>
         <v/>
@@ -5515,21 +5495,11 @@
         <f>C_Tar_min</f>
         <v/>
       </c>
-      <c r="D10" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E10" s="339" t="n">
-        <v>44</v>
-      </c>
-      <c r="F10" s="339" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G10" s="339" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H10" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D10" s="421" t="n"/>
+      <c r="E10" s="339" t="n"/>
+      <c r="F10" s="339" t="n"/>
+      <c r="G10" s="339" t="n"/>
+      <c r="H10" s="422" t="n"/>
       <c r="I10" s="365">
         <f>(H10-$E$5)+$H$2</f>
         <v/>
@@ -5584,21 +5554,11 @@
         <f>SetPnt_N_0</f>
         <v/>
       </c>
-      <c r="D11" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E11" s="339" t="n">
-        <v>55</v>
-      </c>
-      <c r="F11" s="339" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G11" s="339" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H11" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D11" s="421" t="n"/>
+      <c r="E11" s="339" t="n"/>
+      <c r="F11" s="339" t="n"/>
+      <c r="G11" s="339" t="n"/>
+      <c r="H11" s="422" t="n"/>
       <c r="I11" s="365">
         <f>(H11-$E$5)+$H$2</f>
         <v/>
@@ -5653,21 +5613,11 @@
         <f>C_Tar_min</f>
         <v/>
       </c>
-      <c r="D12" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E12" s="339" t="n">
-        <v>66</v>
-      </c>
-      <c r="F12" s="339" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G12" s="339" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H12" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D12" s="421" t="n"/>
+      <c r="E12" s="339" t="n"/>
+      <c r="F12" s="339" t="n"/>
+      <c r="G12" s="339" t="n"/>
+      <c r="H12" s="422" t="n"/>
       <c r="I12" s="365">
         <f>(H12-$E$5)+$H$2</f>
         <v/>
@@ -5722,21 +5672,11 @@
         <f>SetPnt_N_0</f>
         <v/>
       </c>
-      <c r="D13" s="423" t="n">
-        <v>837</v>
-      </c>
-      <c r="E13" s="343" t="n">
-        <v>77</v>
-      </c>
-      <c r="F13" s="343" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G13" s="343" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H13" s="424" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D13" s="423" t="n"/>
+      <c r="E13" s="343" t="n"/>
+      <c r="F13" s="343" t="n"/>
+      <c r="G13" s="343" t="n"/>
+      <c r="H13" s="424" t="n"/>
       <c r="I13" s="364">
         <f>(H13-$E$5)+$H$2</f>
         <v/>
@@ -5791,21 +5731,11 @@
         <f>SetPnt_N_1</f>
         <v/>
       </c>
-      <c r="D14" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E14" s="344" t="n">
-        <v>88</v>
-      </c>
-      <c r="F14" s="344" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G14" s="344" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H14" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D14" s="425" t="n"/>
+      <c r="E14" s="344" t="n"/>
+      <c r="F14" s="344" t="n"/>
+      <c r="G14" s="344" t="n"/>
+      <c r="H14" s="426" t="n"/>
       <c r="I14" s="365">
         <f>(H14-$E$5)+$H$2</f>
         <v/>
@@ -5860,21 +5790,11 @@
         <f>SetPnt_N_2</f>
         <v/>
       </c>
-      <c r="D15" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E15" s="344" t="n">
-        <v>99</v>
-      </c>
-      <c r="F15" s="344" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G15" s="344" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H15" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D15" s="425" t="n"/>
+      <c r="E15" s="344" t="n"/>
+      <c r="F15" s="344" t="n"/>
+      <c r="G15" s="344" t="n"/>
+      <c r="H15" s="426" t="n"/>
       <c r="I15" s="365">
         <f>(H15-$E$5)+$H$2</f>
         <v/>
@@ -5929,21 +5849,11 @@
         <f>SetPnt_N_3</f>
         <v/>
       </c>
-      <c r="D16" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E16" s="344" t="n">
-        <v>111</v>
-      </c>
-      <c r="F16" s="344" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G16" s="344" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H16" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D16" s="425" t="n"/>
+      <c r="E16" s="344" t="n"/>
+      <c r="F16" s="344" t="n"/>
+      <c r="G16" s="344" t="n"/>
+      <c r="H16" s="426" t="n"/>
       <c r="I16" s="365">
         <f>(H16-$E$5)+$H$2</f>
         <v/>
@@ -5998,21 +5908,11 @@
         <f>SetPnt_N_4</f>
         <v/>
       </c>
-      <c r="D17" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E17" s="344" t="n">
-        <v>222</v>
-      </c>
-      <c r="F17" s="344" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G17" s="344" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H17" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D17" s="425" t="n"/>
+      <c r="E17" s="344" t="n"/>
+      <c r="F17" s="344" t="n"/>
+      <c r="G17" s="344" t="n"/>
+      <c r="H17" s="426" t="n"/>
       <c r="I17" s="365">
         <f>(H17-$E$5)+$H$2</f>
         <v/>
@@ -6067,21 +5967,11 @@
         <f>SetPnt_N_5</f>
         <v/>
       </c>
-      <c r="D18" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E18" s="344" t="n">
-        <v>333</v>
-      </c>
-      <c r="F18" s="344" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G18" s="344" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H18" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D18" s="425" t="n"/>
+      <c r="E18" s="344" t="n"/>
+      <c r="F18" s="344" t="n"/>
+      <c r="G18" s="344" t="n"/>
+      <c r="H18" s="426" t="n"/>
       <c r="I18" s="365">
         <f>(H18-$E$5)+$H$2</f>
         <v/>
@@ -6136,21 +6026,11 @@
         <f>SetPnt_N_0</f>
         <v/>
       </c>
-      <c r="D19" s="423" t="n">
-        <v>837</v>
-      </c>
-      <c r="E19" s="343" t="n">
-        <v>444</v>
-      </c>
-      <c r="F19" s="343" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G19" s="343" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H19" s="424" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D19" s="423" t="n"/>
+      <c r="E19" s="343" t="n"/>
+      <c r="F19" s="343" t="n"/>
+      <c r="G19" s="343" t="n"/>
+      <c r="H19" s="424" t="n"/>
       <c r="I19" s="364">
         <f>(H19-$E$5)+$H$2</f>
         <v/>
@@ -6205,21 +6085,11 @@
         <f>SetPnt_N_1</f>
         <v/>
       </c>
-      <c r="D20" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E20" s="344" t="n">
-        <v>555</v>
-      </c>
-      <c r="F20" s="344" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G20" s="344" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H20" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D20" s="425" t="n"/>
+      <c r="E20" s="344" t="n"/>
+      <c r="F20" s="344" t="n"/>
+      <c r="G20" s="344" t="n"/>
+      <c r="H20" s="426" t="n"/>
       <c r="I20" s="365">
         <f>(H20-$E$5)+$H$2</f>
         <v/>
@@ -6274,21 +6144,11 @@
         <f>SetPnt_N_2</f>
         <v/>
       </c>
-      <c r="D21" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E21" s="344" t="n">
-        <v>666</v>
-      </c>
-      <c r="F21" s="344" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G21" s="344" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H21" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D21" s="425" t="n"/>
+      <c r="E21" s="344" t="n"/>
+      <c r="F21" s="344" t="n"/>
+      <c r="G21" s="344" t="n"/>
+      <c r="H21" s="426" t="n"/>
       <c r="I21" s="365">
         <f>(H21-$E$5)+$H$2</f>
         <v/>
@@ -6343,21 +6203,11 @@
         <f>SetPnt_N_3</f>
         <v/>
       </c>
-      <c r="D22" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E22" s="344" t="n">
-        <v>777</v>
-      </c>
-      <c r="F22" s="344" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G22" s="344" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H22" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D22" s="425" t="n"/>
+      <c r="E22" s="344" t="n"/>
+      <c r="F22" s="344" t="n"/>
+      <c r="G22" s="344" t="n"/>
+      <c r="H22" s="426" t="n"/>
       <c r="I22" s="365">
         <f>(H22-$E$5)+$H$2</f>
         <v/>
@@ -6412,21 +6262,11 @@
         <f>SetPnt_N_4</f>
         <v/>
       </c>
-      <c r="D23" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E23" s="344" t="n">
-        <v>888</v>
-      </c>
-      <c r="F23" s="344" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G23" s="344" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H23" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D23" s="425" t="n"/>
+      <c r="E23" s="344" t="n"/>
+      <c r="F23" s="344" t="n"/>
+      <c r="G23" s="344" t="n"/>
+      <c r="H23" s="426" t="n"/>
       <c r="I23" s="365">
         <f>(H23-$E$5)+$H$2</f>
         <v/>
@@ -6481,21 +6321,11 @@
         <f>SetPnt_N_5</f>
         <v/>
       </c>
-      <c r="D24" s="427" t="n">
-        <v>837</v>
-      </c>
-      <c r="E24" s="348" t="n">
-        <v>999</v>
-      </c>
-      <c r="F24" s="348" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G24" s="348" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H24" s="428" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D24" s="427" t="n"/>
+      <c r="E24" s="348" t="n"/>
+      <c r="F24" s="348" t="n"/>
+      <c r="G24" s="348" t="n"/>
+      <c r="H24" s="428" t="n"/>
       <c r="I24" s="366">
         <f>(H24-$E$5)+$H$2</f>
         <v/>
@@ -6550,21 +6380,11 @@
         <f>SetPnt_N_0</f>
         <v/>
       </c>
-      <c r="D25" s="429" t="n">
-        <v>837</v>
-      </c>
-      <c r="E25" s="430" t="n">
-        <v>1111</v>
-      </c>
-      <c r="F25" s="430" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G25" s="430" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H25" s="431" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D25" s="429" t="n"/>
+      <c r="E25" s="430" t="n"/>
+      <c r="F25" s="430" t="n"/>
+      <c r="G25" s="430" t="n"/>
+      <c r="H25" s="431" t="n"/>
       <c r="I25" s="366">
         <f>(H25-$E$5)+$H$2</f>
         <v/>
@@ -6740,13 +6560,13 @@
         <v>837</v>
       </c>
       <c r="E29" s="419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="419" t="n">
         <v>-156.5579745837849</v>
       </c>
       <c r="G29" s="419" t="n">
-        <v>-1.5696</v>
+        <v>-1.3734</v>
       </c>
       <c r="H29" s="420" t="n">
         <v>0.001</v>
@@ -6809,13 +6629,13 @@
         <v>837</v>
       </c>
       <c r="E30" s="339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30" s="339" t="n">
-        <v>-156.5579745837849</v>
+        <v>-157.0411782090434</v>
       </c>
       <c r="G30" s="339" t="n">
-        <v>-1.5696</v>
+        <v>-1.3734</v>
       </c>
       <c r="H30" s="422" t="n">
         <v>0.001</v>
@@ -6878,13 +6698,13 @@
         <v>837</v>
       </c>
       <c r="E31" s="339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F31" s="339" t="n">
         <v>-156.5579745837849</v>
       </c>
       <c r="G31" s="339" t="n">
-        <v>-1.5696</v>
+        <v>-1.3734</v>
       </c>
       <c r="H31" s="422" t="n">
         <v>0.001</v>
@@ -6947,13 +6767,13 @@
         <v>837</v>
       </c>
       <c r="E32" s="339" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F32" s="339" t="n">
-        <v>-156.5579745837849</v>
+        <v>-157.0411782090434</v>
       </c>
       <c r="G32" s="339" t="n">
-        <v>-1.5696</v>
+        <v>-1.3734</v>
       </c>
       <c r="H32" s="422" t="n">
         <v>0.001</v>
@@ -7016,13 +6836,13 @@
         <v>837</v>
       </c>
       <c r="E33" s="339" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F33" s="339" t="n">
-        <v>-156.5579745837849</v>
+        <v>-157.0411782090434</v>
       </c>
       <c r="G33" s="339" t="n">
-        <v>-1.5696</v>
+        <v>-1.3734</v>
       </c>
       <c r="H33" s="422" t="n">
         <v>0.001</v>
@@ -7085,13 +6905,13 @@
         <v>837</v>
       </c>
       <c r="E34" s="339" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F34" s="339" t="n">
-        <v>-156.5579745837849</v>
+        <v>-157.0411782090434</v>
       </c>
       <c r="G34" s="339" t="n">
-        <v>-1.5696</v>
+        <v>-1.3734</v>
       </c>
       <c r="H34" s="422" t="n">
         <v>0.001</v>
@@ -7154,13 +6974,13 @@
         <v>837</v>
       </c>
       <c r="E35" s="343" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F35" s="343" t="n">
         <v>-157.0411782090434</v>
       </c>
       <c r="G35" s="343" t="n">
-        <v>-1.5696</v>
+        <v>-1.3734</v>
       </c>
       <c r="H35" s="424" t="n">
         <v>0.001</v>
@@ -7223,13 +7043,13 @@
         <v>837</v>
       </c>
       <c r="E36" s="344" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F36" s="344" t="n">
-        <v>-156.5579745837849</v>
+        <v>-157.0411782090434</v>
       </c>
       <c r="G36" s="344" t="n">
-        <v>-1.5696</v>
+        <v>-1.3734</v>
       </c>
       <c r="H36" s="426" t="n">
         <v>0.001</v>
@@ -7292,13 +7112,13 @@
         <v>837</v>
       </c>
       <c r="E37" s="344" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F37" s="344" t="n">
-        <v>-156.5579745837849</v>
+        <v>-157.0411782090434</v>
       </c>
       <c r="G37" s="344" t="n">
-        <v>-1.5696</v>
+        <v>-1.3734</v>
       </c>
       <c r="H37" s="426" t="n">
         <v>0.001</v>
@@ -7361,13 +7181,13 @@
         <v>837</v>
       </c>
       <c r="E38" s="344" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F38" s="344" t="n">
-        <v>-156.5579745837849</v>
+        <v>-157.0411782090434</v>
       </c>
       <c r="G38" s="344" t="n">
-        <v>-1.5696</v>
+        <v>-1.3734</v>
       </c>
       <c r="H38" s="426" t="n">
         <v>0.001</v>
@@ -7430,13 +7250,13 @@
         <v>837</v>
       </c>
       <c r="E39" s="344" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F39" s="344" t="n">
-        <v>-156.5579745837849</v>
+        <v>-157.0411782090434</v>
       </c>
       <c r="G39" s="344" t="n">
-        <v>-1.5696</v>
+        <v>-1.3734</v>
       </c>
       <c r="H39" s="426" t="n">
         <v>0.001</v>
@@ -7499,13 +7319,13 @@
         <v>837</v>
       </c>
       <c r="E40" s="344" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F40" s="344" t="n">
-        <v>-156.5579745837849</v>
+        <v>-157.0411782090434</v>
       </c>
       <c r="G40" s="344" t="n">
-        <v>-1.5696</v>
+        <v>-1.3734</v>
       </c>
       <c r="H40" s="426" t="n">
         <v>0.001</v>
@@ -7568,13 +7388,13 @@
         <v>837</v>
       </c>
       <c r="E41" s="343" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F41" s="343" t="n">
         <v>-157.0411782090434</v>
       </c>
       <c r="G41" s="343" t="n">
-        <v>-1.5696</v>
+        <v>-1.3734</v>
       </c>
       <c r="H41" s="424" t="n">
         <v>0.001</v>
@@ -7637,13 +7457,13 @@
         <v>837</v>
       </c>
       <c r="E42" s="344" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F42" s="344" t="n">
         <v>-156.5579745837849</v>
       </c>
       <c r="G42" s="344" t="n">
-        <v>-1.5696</v>
+        <v>-1.3734</v>
       </c>
       <c r="H42" s="426" t="n">
         <v>0.001</v>
@@ -7706,13 +7526,13 @@
         <v>837</v>
       </c>
       <c r="E43" s="344" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F43" s="344" t="n">
         <v>-156.5579745837849</v>
       </c>
       <c r="G43" s="344" t="n">
-        <v>-1.5696</v>
+        <v>-1.3734</v>
       </c>
       <c r="H43" s="426" t="n">
         <v>0.001</v>
@@ -7775,13 +7595,13 @@
         <v>837</v>
       </c>
       <c r="E44" s="344" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F44" s="344" t="n">
-        <v>-156.5579745837849</v>
+        <v>-157.0411782090434</v>
       </c>
       <c r="G44" s="344" t="n">
-        <v>-1.5696</v>
+        <v>-1.3734</v>
       </c>
       <c r="H44" s="426" t="n">
         <v>0.001</v>
@@ -7844,13 +7664,13 @@
         <v>837</v>
       </c>
       <c r="E45" s="344" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F45" s="344" t="n">
-        <v>-156.5579745837849</v>
+        <v>-157.0411782090434</v>
       </c>
       <c r="G45" s="344" t="n">
-        <v>-1.5696</v>
+        <v>-1.3734</v>
       </c>
       <c r="H45" s="426" t="n">
         <v>0.001</v>
@@ -7913,13 +7733,13 @@
         <v>837</v>
       </c>
       <c r="E46" s="344" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F46" s="344" t="n">
         <v>-156.5579745837849</v>
       </c>
       <c r="G46" s="344" t="n">
-        <v>-1.5696</v>
+        <v>-1.3734</v>
       </c>
       <c r="H46" s="426" t="n">
         <v>0.001</v>
@@ -7982,13 +7802,13 @@
         <v>837</v>
       </c>
       <c r="E47" s="430" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F47" s="430" t="n">
         <v>-156.5579745837849</v>
       </c>
       <c r="G47" s="430" t="n">
-        <v>-1.5696</v>
+        <v>-1.3734</v>
       </c>
       <c r="H47" s="431" t="n">
         <v>0.001</v>

--- a/python/Codice_Progetto/Certificati_Euramet_Completi/Default.xlsx
+++ b/python/Codice_Progetto/Certificati_Euramet_Completi/Default.xlsx
@@ -5108,7 +5108,7 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col width="9" customWidth="1" style="363" min="1" max="1"/>
     <col width="10.33203125" customWidth="1" style="363" min="2" max="2"/>
@@ -5308,21 +5308,11 @@
         <f>SetPnt_N_0</f>
         <v/>
       </c>
-      <c r="D7" s="418" t="n">
-        <v>837</v>
-      </c>
-      <c r="E7" s="419" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="419" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G7" s="419" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H7" s="420" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D7" s="418" t="n"/>
+      <c r="E7" s="419" t="n"/>
+      <c r="F7" s="419" t="n"/>
+      <c r="G7" s="419" t="n"/>
+      <c r="H7" s="420" t="n"/>
       <c r="I7" s="364">
         <f>(H7-$E$5)+$H$2</f>
         <v/>
@@ -6556,21 +6546,11 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D29" s="418" t="n">
-        <v>837</v>
-      </c>
-      <c r="E29" s="419" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="419" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G29" s="419" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H29" s="420" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D29" s="418" t="n"/>
+      <c r="E29" s="419" t="n"/>
+      <c r="F29" s="419" t="n"/>
+      <c r="G29" s="419" t="n"/>
+      <c r="H29" s="420" t="n"/>
       <c r="I29" s="364">
         <f>(H29-$E$27)+$H$2</f>
         <v/>
@@ -6625,21 +6605,11 @@
         <f>C_Tar_max</f>
         <v/>
       </c>
-      <c r="D30" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E30" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="339" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G30" s="339" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H30" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D30" s="421" t="n"/>
+      <c r="E30" s="339" t="n"/>
+      <c r="F30" s="339" t="n"/>
+      <c r="G30" s="339" t="n"/>
+      <c r="H30" s="422" t="n"/>
       <c r="I30" s="365">
         <f>(H30-$E$27)+$H$2</f>
         <v/>
@@ -6694,21 +6664,11 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D31" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E31" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="339" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G31" s="339" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H31" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D31" s="421" t="n"/>
+      <c r="E31" s="339" t="n"/>
+      <c r="F31" s="339" t="n"/>
+      <c r="G31" s="339" t="n"/>
+      <c r="H31" s="422" t="n"/>
       <c r="I31" s="365">
         <f>(H31-$E$27)+$H$2</f>
         <v/>
@@ -6763,21 +6723,11 @@
         <f>C_Tar_max</f>
         <v/>
       </c>
-      <c r="D32" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E32" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="339" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G32" s="339" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H32" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D32" s="421" t="n"/>
+      <c r="E32" s="339" t="n"/>
+      <c r="F32" s="339" t="n"/>
+      <c r="G32" s="339" t="n"/>
+      <c r="H32" s="422" t="n"/>
       <c r="I32" s="365">
         <f>(H32-$E$27)+$H$2</f>
         <v/>
@@ -6832,21 +6782,11 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D33" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E33" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="339" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G33" s="339" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H33" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D33" s="421" t="n"/>
+      <c r="E33" s="339" t="n"/>
+      <c r="F33" s="339" t="n"/>
+      <c r="G33" s="339" t="n"/>
+      <c r="H33" s="422" t="n"/>
       <c r="I33" s="365">
         <f>(H33-$E$27)+$H$2</f>
         <v/>
@@ -6901,21 +6841,11 @@
         <f>C_Tar_max</f>
         <v/>
       </c>
-      <c r="D34" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E34" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="339" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G34" s="339" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H34" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D34" s="421" t="n"/>
+      <c r="E34" s="339" t="n"/>
+      <c r="F34" s="339" t="n"/>
+      <c r="G34" s="339" t="n"/>
+      <c r="H34" s="422" t="n"/>
       <c r="I34" s="365">
         <f>(H34-$E$27)+$H$2</f>
         <v/>
@@ -6970,21 +6900,11 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D35" s="423" t="n">
-        <v>837</v>
-      </c>
-      <c r="E35" s="343" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="343" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G35" s="343" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H35" s="424" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D35" s="423" t="n"/>
+      <c r="E35" s="343" t="n"/>
+      <c r="F35" s="343" t="n"/>
+      <c r="G35" s="343" t="n"/>
+      <c r="H35" s="424" t="n"/>
       <c r="I35" s="364">
         <f>(H35-$E$27)+$H$2</f>
         <v/>
@@ -7039,21 +6959,11 @@
         <f>SetPnt_P_1</f>
         <v/>
       </c>
-      <c r="D36" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E36" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="344" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G36" s="344" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H36" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D36" s="425" t="n"/>
+      <c r="E36" s="344" t="n"/>
+      <c r="F36" s="344" t="n"/>
+      <c r="G36" s="344" t="n"/>
+      <c r="H36" s="426" t="n"/>
       <c r="I36" s="365">
         <f>(H36-$E$27)+$H$2</f>
         <v/>
@@ -7108,21 +7018,11 @@
         <f>SetPnt_P_2</f>
         <v/>
       </c>
-      <c r="D37" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E37" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="344" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G37" s="344" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H37" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D37" s="425" t="n"/>
+      <c r="E37" s="344" t="n"/>
+      <c r="F37" s="344" t="n"/>
+      <c r="G37" s="344" t="n"/>
+      <c r="H37" s="426" t="n"/>
       <c r="I37" s="365">
         <f>(H37-$E$27)+$H$2</f>
         <v/>
@@ -7177,21 +7077,11 @@
         <f>SetPnt_P_3</f>
         <v/>
       </c>
-      <c r="D38" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E38" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="344" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G38" s="344" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H38" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D38" s="425" t="n"/>
+      <c r="E38" s="344" t="n"/>
+      <c r="F38" s="344" t="n"/>
+      <c r="G38" s="344" t="n"/>
+      <c r="H38" s="426" t="n"/>
       <c r="I38" s="365">
         <f>(H38-$E$27)+$H$2</f>
         <v/>
@@ -7246,21 +7136,11 @@
         <f>SetPnt_P_4</f>
         <v/>
       </c>
-      <c r="D39" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E39" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="344" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G39" s="344" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H39" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D39" s="425" t="n"/>
+      <c r="E39" s="344" t="n"/>
+      <c r="F39" s="344" t="n"/>
+      <c r="G39" s="344" t="n"/>
+      <c r="H39" s="426" t="n"/>
       <c r="I39" s="365">
         <f>(H39-$E$27)+$H$2</f>
         <v/>
@@ -7315,21 +7195,11 @@
         <f>SetPnt_P_5</f>
         <v/>
       </c>
-      <c r="D40" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E40" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="344" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G40" s="344" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H40" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D40" s="425" t="n"/>
+      <c r="E40" s="344" t="n"/>
+      <c r="F40" s="344" t="n"/>
+      <c r="G40" s="344" t="n"/>
+      <c r="H40" s="426" t="n"/>
       <c r="I40" s="365">
         <f>(H40-$E$27)+$H$2</f>
         <v/>
@@ -7384,21 +7254,11 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D41" s="423" t="n">
-        <v>837</v>
-      </c>
-      <c r="E41" s="343" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="343" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G41" s="343" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H41" s="424" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D41" s="423" t="n"/>
+      <c r="E41" s="343" t="n"/>
+      <c r="F41" s="343" t="n"/>
+      <c r="G41" s="343" t="n"/>
+      <c r="H41" s="424" t="n"/>
       <c r="I41" s="364">
         <f>(H41-$E$27)+$H$2</f>
         <v/>
@@ -7453,21 +7313,11 @@
         <f>SetPnt_P_1</f>
         <v/>
       </c>
-      <c r="D42" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E42" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="344" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G42" s="344" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H42" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D42" s="425" t="n"/>
+      <c r="E42" s="344" t="n"/>
+      <c r="F42" s="344" t="n"/>
+      <c r="G42" s="344" t="n"/>
+      <c r="H42" s="426" t="n"/>
       <c r="I42" s="365">
         <f>(H42-$E$27)+$H$2</f>
         <v/>
@@ -7522,21 +7372,11 @@
         <f>SetPnt_P_2</f>
         <v/>
       </c>
-      <c r="D43" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E43" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="344" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G43" s="344" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H43" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D43" s="425" t="n"/>
+      <c r="E43" s="344" t="n"/>
+      <c r="F43" s="344" t="n"/>
+      <c r="G43" s="344" t="n"/>
+      <c r="H43" s="426" t="n"/>
       <c r="I43" s="365">
         <f>(H43-$E$27)+$H$2</f>
         <v/>
@@ -7591,21 +7431,11 @@
         <f>SetPnt_P_3</f>
         <v/>
       </c>
-      <c r="D44" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E44" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="344" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G44" s="344" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H44" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D44" s="425" t="n"/>
+      <c r="E44" s="344" t="n"/>
+      <c r="F44" s="344" t="n"/>
+      <c r="G44" s="344" t="n"/>
+      <c r="H44" s="426" t="n"/>
       <c r="I44" s="365">
         <f>(H44-$E$27)+$H$2</f>
         <v/>
@@ -7660,21 +7490,11 @@
         <f>SetPnt_P_4</f>
         <v/>
       </c>
-      <c r="D45" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E45" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="344" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G45" s="344" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H45" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D45" s="425" t="n"/>
+      <c r="E45" s="344" t="n"/>
+      <c r="F45" s="344" t="n"/>
+      <c r="G45" s="344" t="n"/>
+      <c r="H45" s="426" t="n"/>
       <c r="I45" s="365">
         <f>(H45-$E$27)+$H$2</f>
         <v/>
@@ -7729,21 +7549,11 @@
         <f>SetPnt_P_5</f>
         <v/>
       </c>
-      <c r="D46" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E46" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="344" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G46" s="344" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H46" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D46" s="425" t="n"/>
+      <c r="E46" s="344" t="n"/>
+      <c r="F46" s="344" t="n"/>
+      <c r="G46" s="344" t="n"/>
+      <c r="H46" s="426" t="n"/>
       <c r="I46" s="366">
         <f>(H46-$E$27)+$H$2</f>
         <v/>
@@ -7798,21 +7608,11 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D47" s="429" t="n">
-        <v>837</v>
-      </c>
-      <c r="E47" s="430" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="430" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G47" s="430" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H47" s="431" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D47" s="429" t="n"/>
+      <c r="E47" s="430" t="n"/>
+      <c r="F47" s="430" t="n"/>
+      <c r="G47" s="430" t="n"/>
+      <c r="H47" s="431" t="n"/>
       <c r="I47" s="366">
         <f>(H47-$E$27)+$H$2</f>
         <v/>
@@ -8881,7 +8681,7 @@
       <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col width="25.88671875" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
@@ -10472,7 +10272,7 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col width="15.5546875" customWidth="1" min="1" max="1"/>
     <col width="19.6640625" customWidth="1" min="2" max="2"/>
@@ -16695,7 +16495,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col width="14.33203125" customWidth="1" min="1" max="1"/>
     <col width="19.6640625" customWidth="1" min="2" max="2"/>
@@ -22892,7 +22692,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="13.5546875" customWidth="1" min="3" max="3"/>
@@ -24057,7 +23857,7 @@
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col width="3" customWidth="1" min="1" max="1"/>
     <col width="3.5546875" customWidth="1" min="2" max="2"/>
@@ -25566,8 +25366,8 @@
     <mergeCell ref="F16:M16"/>
     <mergeCell ref="G98:H98"/>
     <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G97:H97"/>
     <mergeCell ref="L102:L103"/>
-    <mergeCell ref="G97:H97"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="I70:J70"/>
     <mergeCell ref="I91:J91"/>

--- a/python/Codice_Progetto/Certificati_Euramet_Completi/Default.xlsx
+++ b/python/Codice_Progetto/Certificati_Euramet_Completi/Default.xlsx
@@ -5108,7 +5108,7 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="0"/>
   <cols>
     <col width="9" customWidth="1" style="363" min="1" max="1"/>
     <col width="10.33203125" customWidth="1" style="363" min="2" max="2"/>
@@ -5308,11 +5308,21 @@
         <f>SetPnt_N_0</f>
         <v/>
       </c>
-      <c r="D7" s="418" t="n"/>
-      <c r="E7" s="419" t="n"/>
-      <c r="F7" s="419" t="n"/>
-      <c r="G7" s="419" t="n"/>
-      <c r="H7" s="420" t="n"/>
+      <c r="D7" s="418" t="n">
+        <v>837</v>
+      </c>
+      <c r="E7" s="419" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="419" t="n">
+        <v>-156.5579745837849</v>
+      </c>
+      <c r="G7" s="419" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H7" s="420" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I7" s="364">
         <f>(H7-$E$5)+$H$2</f>
         <v/>
@@ -5367,11 +5377,21 @@
         <f>C_Tar_min</f>
         <v/>
       </c>
-      <c r="D8" s="421" t="n"/>
-      <c r="E8" s="339" t="n"/>
-      <c r="F8" s="339" t="n"/>
-      <c r="G8" s="339" t="n"/>
-      <c r="H8" s="422" t="n"/>
+      <c r="D8" s="421" t="n">
+        <v>837</v>
+      </c>
+      <c r="E8" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="339" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G8" s="339" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H8" s="422" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I8" s="365">
         <f>(H8-$E$5)+$H$2</f>
         <v/>
@@ -5426,11 +5446,21 @@
         <f>SetPnt_N_0</f>
         <v/>
       </c>
-      <c r="D9" s="421" t="n"/>
-      <c r="E9" s="339" t="n"/>
-      <c r="F9" s="339" t="n"/>
-      <c r="G9" s="339" t="n"/>
-      <c r="H9" s="422" t="n"/>
+      <c r="D9" s="421" t="n">
+        <v>837</v>
+      </c>
+      <c r="E9" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="339" t="n">
+        <v>-156.5579745837849</v>
+      </c>
+      <c r="G9" s="339" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H9" s="422" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I9" s="365">
         <f>(H9-$E$5)+$H$2</f>
         <v/>
@@ -5485,11 +5515,21 @@
         <f>C_Tar_min</f>
         <v/>
       </c>
-      <c r="D10" s="421" t="n"/>
-      <c r="E10" s="339" t="n"/>
-      <c r="F10" s="339" t="n"/>
-      <c r="G10" s="339" t="n"/>
-      <c r="H10" s="422" t="n"/>
+      <c r="D10" s="421" t="n">
+        <v>837</v>
+      </c>
+      <c r="E10" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="339" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G10" s="339" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H10" s="422" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I10" s="365">
         <f>(H10-$E$5)+$H$2</f>
         <v/>
@@ -5544,11 +5584,21 @@
         <f>SetPnt_N_0</f>
         <v/>
       </c>
-      <c r="D11" s="421" t="n"/>
-      <c r="E11" s="339" t="n"/>
-      <c r="F11" s="339" t="n"/>
-      <c r="G11" s="339" t="n"/>
-      <c r="H11" s="422" t="n"/>
+      <c r="D11" s="421" t="n">
+        <v>837</v>
+      </c>
+      <c r="E11" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="339" t="n">
+        <v>-156.5579745837849</v>
+      </c>
+      <c r="G11" s="339" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H11" s="422" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I11" s="365">
         <f>(H11-$E$5)+$H$2</f>
         <v/>
@@ -5603,11 +5653,21 @@
         <f>C_Tar_min</f>
         <v/>
       </c>
-      <c r="D12" s="421" t="n"/>
-      <c r="E12" s="339" t="n"/>
-      <c r="F12" s="339" t="n"/>
-      <c r="G12" s="339" t="n"/>
-      <c r="H12" s="422" t="n"/>
+      <c r="D12" s="421" t="n">
+        <v>837</v>
+      </c>
+      <c r="E12" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="339" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G12" s="339" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H12" s="422" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I12" s="365">
         <f>(H12-$E$5)+$H$2</f>
         <v/>
@@ -5662,11 +5722,21 @@
         <f>SetPnt_N_0</f>
         <v/>
       </c>
-      <c r="D13" s="423" t="n"/>
-      <c r="E13" s="343" t="n"/>
-      <c r="F13" s="343" t="n"/>
-      <c r="G13" s="343" t="n"/>
-      <c r="H13" s="424" t="n"/>
+      <c r="D13" s="423" t="n">
+        <v>837</v>
+      </c>
+      <c r="E13" s="343" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="343" t="n">
+        <v>-156.5579745837849</v>
+      </c>
+      <c r="G13" s="343" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H13" s="424" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I13" s="364">
         <f>(H13-$E$5)+$H$2</f>
         <v/>
@@ -5721,11 +5791,21 @@
         <f>SetPnt_N_1</f>
         <v/>
       </c>
-      <c r="D14" s="425" t="n"/>
-      <c r="E14" s="344" t="n"/>
-      <c r="F14" s="344" t="n"/>
-      <c r="G14" s="344" t="n"/>
-      <c r="H14" s="426" t="n"/>
+      <c r="D14" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E14" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="344" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G14" s="344" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H14" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I14" s="365">
         <f>(H14-$E$5)+$H$2</f>
         <v/>
@@ -5780,11 +5860,21 @@
         <f>SetPnt_N_2</f>
         <v/>
       </c>
-      <c r="D15" s="425" t="n"/>
-      <c r="E15" s="344" t="n"/>
-      <c r="F15" s="344" t="n"/>
-      <c r="G15" s="344" t="n"/>
-      <c r="H15" s="426" t="n"/>
+      <c r="D15" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E15" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="344" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G15" s="344" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H15" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I15" s="365">
         <f>(H15-$E$5)+$H$2</f>
         <v/>
@@ -5839,11 +5929,21 @@
         <f>SetPnt_N_3</f>
         <v/>
       </c>
-      <c r="D16" s="425" t="n"/>
-      <c r="E16" s="344" t="n"/>
-      <c r="F16" s="344" t="n"/>
-      <c r="G16" s="344" t="n"/>
-      <c r="H16" s="426" t="n"/>
+      <c r="D16" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E16" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="344" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G16" s="344" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H16" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I16" s="365">
         <f>(H16-$E$5)+$H$2</f>
         <v/>
@@ -5898,11 +5998,21 @@
         <f>SetPnt_N_4</f>
         <v/>
       </c>
-      <c r="D17" s="425" t="n"/>
-      <c r="E17" s="344" t="n"/>
-      <c r="F17" s="344" t="n"/>
-      <c r="G17" s="344" t="n"/>
-      <c r="H17" s="426" t="n"/>
+      <c r="D17" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E17" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="344" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G17" s="344" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H17" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I17" s="365">
         <f>(H17-$E$5)+$H$2</f>
         <v/>
@@ -5957,11 +6067,21 @@
         <f>SetPnt_N_5</f>
         <v/>
       </c>
-      <c r="D18" s="425" t="n"/>
-      <c r="E18" s="344" t="n"/>
-      <c r="F18" s="344" t="n"/>
-      <c r="G18" s="344" t="n"/>
-      <c r="H18" s="426" t="n"/>
+      <c r="D18" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E18" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="344" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G18" s="344" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H18" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I18" s="365">
         <f>(H18-$E$5)+$H$2</f>
         <v/>
@@ -6016,11 +6136,21 @@
         <f>SetPnt_N_0</f>
         <v/>
       </c>
-      <c r="D19" s="423" t="n"/>
-      <c r="E19" s="343" t="n"/>
-      <c r="F19" s="343" t="n"/>
-      <c r="G19" s="343" t="n"/>
-      <c r="H19" s="424" t="n"/>
+      <c r="D19" s="423" t="n">
+        <v>837</v>
+      </c>
+      <c r="E19" s="343" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="343" t="n">
+        <v>-156.5579745837849</v>
+      </c>
+      <c r="G19" s="343" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H19" s="424" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I19" s="364">
         <f>(H19-$E$5)+$H$2</f>
         <v/>
@@ -6075,11 +6205,21 @@
         <f>SetPnt_N_1</f>
         <v/>
       </c>
-      <c r="D20" s="425" t="n"/>
-      <c r="E20" s="344" t="n"/>
-      <c r="F20" s="344" t="n"/>
-      <c r="G20" s="344" t="n"/>
-      <c r="H20" s="426" t="n"/>
+      <c r="D20" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E20" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="344" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G20" s="344" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H20" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I20" s="365">
         <f>(H20-$E$5)+$H$2</f>
         <v/>
@@ -6134,11 +6274,21 @@
         <f>SetPnt_N_2</f>
         <v/>
       </c>
-      <c r="D21" s="425" t="n"/>
-      <c r="E21" s="344" t="n"/>
-      <c r="F21" s="344" t="n"/>
-      <c r="G21" s="344" t="n"/>
-      <c r="H21" s="426" t="n"/>
+      <c r="D21" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E21" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="344" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G21" s="344" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H21" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I21" s="365">
         <f>(H21-$E$5)+$H$2</f>
         <v/>
@@ -6193,11 +6343,21 @@
         <f>SetPnt_N_3</f>
         <v/>
       </c>
-      <c r="D22" s="425" t="n"/>
-      <c r="E22" s="344" t="n"/>
-      <c r="F22" s="344" t="n"/>
-      <c r="G22" s="344" t="n"/>
-      <c r="H22" s="426" t="n"/>
+      <c r="D22" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E22" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="344" t="n">
+        <v>-156.5579745837849</v>
+      </c>
+      <c r="G22" s="344" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H22" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I22" s="365">
         <f>(H22-$E$5)+$H$2</f>
         <v/>
@@ -6252,11 +6412,21 @@
         <f>SetPnt_N_4</f>
         <v/>
       </c>
-      <c r="D23" s="425" t="n"/>
-      <c r="E23" s="344" t="n"/>
-      <c r="F23" s="344" t="n"/>
-      <c r="G23" s="344" t="n"/>
-      <c r="H23" s="426" t="n"/>
+      <c r="D23" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E23" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="344" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G23" s="344" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H23" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I23" s="365">
         <f>(H23-$E$5)+$H$2</f>
         <v/>
@@ -6546,11 +6716,21 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D29" s="418" t="n"/>
-      <c r="E29" s="419" t="n"/>
-      <c r="F29" s="419" t="n"/>
-      <c r="G29" s="419" t="n"/>
-      <c r="H29" s="420" t="n"/>
+      <c r="D29" s="418" t="n">
+        <v>837</v>
+      </c>
+      <c r="E29" s="419" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="419" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G29" s="419" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H29" s="420" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I29" s="364">
         <f>(H29-$E$27)+$H$2</f>
         <v/>
@@ -6605,11 +6785,21 @@
         <f>C_Tar_max</f>
         <v/>
       </c>
-      <c r="D30" s="421" t="n"/>
-      <c r="E30" s="339" t="n"/>
-      <c r="F30" s="339" t="n"/>
-      <c r="G30" s="339" t="n"/>
-      <c r="H30" s="422" t="n"/>
+      <c r="D30" s="421" t="n">
+        <v>837</v>
+      </c>
+      <c r="E30" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="339" t="n">
+        <v>-156.5579745837849</v>
+      </c>
+      <c r="G30" s="339" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H30" s="422" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I30" s="365">
         <f>(H30-$E$27)+$H$2</f>
         <v/>
@@ -6664,11 +6854,21 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D31" s="421" t="n"/>
-      <c r="E31" s="339" t="n"/>
-      <c r="F31" s="339" t="n"/>
-      <c r="G31" s="339" t="n"/>
-      <c r="H31" s="422" t="n"/>
+      <c r="D31" s="421" t="n">
+        <v>837</v>
+      </c>
+      <c r="E31" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="339" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G31" s="339" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H31" s="422" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I31" s="365">
         <f>(H31-$E$27)+$H$2</f>
         <v/>
@@ -6723,11 +6923,21 @@
         <f>C_Tar_max</f>
         <v/>
       </c>
-      <c r="D32" s="421" t="n"/>
-      <c r="E32" s="339" t="n"/>
-      <c r="F32" s="339" t="n"/>
-      <c r="G32" s="339" t="n"/>
-      <c r="H32" s="422" t="n"/>
+      <c r="D32" s="421" t="n">
+        <v>837</v>
+      </c>
+      <c r="E32" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="339" t="n">
+        <v>-156.5579745837849</v>
+      </c>
+      <c r="G32" s="339" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H32" s="422" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I32" s="365">
         <f>(H32-$E$27)+$H$2</f>
         <v/>
@@ -6782,11 +6992,21 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D33" s="421" t="n"/>
-      <c r="E33" s="339" t="n"/>
-      <c r="F33" s="339" t="n"/>
-      <c r="G33" s="339" t="n"/>
-      <c r="H33" s="422" t="n"/>
+      <c r="D33" s="421" t="n">
+        <v>837</v>
+      </c>
+      <c r="E33" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="339" t="n">
+        <v>-156.5579745837849</v>
+      </c>
+      <c r="G33" s="339" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H33" s="422" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I33" s="365">
         <f>(H33-$E$27)+$H$2</f>
         <v/>
@@ -6841,11 +7061,21 @@
         <f>C_Tar_max</f>
         <v/>
       </c>
-      <c r="D34" s="421" t="n"/>
-      <c r="E34" s="339" t="n"/>
-      <c r="F34" s="339" t="n"/>
-      <c r="G34" s="339" t="n"/>
-      <c r="H34" s="422" t="n"/>
+      <c r="D34" s="421" t="n">
+        <v>837</v>
+      </c>
+      <c r="E34" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="339" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G34" s="339" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H34" s="422" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I34" s="365">
         <f>(H34-$E$27)+$H$2</f>
         <v/>
@@ -6900,11 +7130,21 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D35" s="423" t="n"/>
-      <c r="E35" s="343" t="n"/>
-      <c r="F35" s="343" t="n"/>
-      <c r="G35" s="343" t="n"/>
-      <c r="H35" s="424" t="n"/>
+      <c r="D35" s="423" t="n">
+        <v>837</v>
+      </c>
+      <c r="E35" s="343" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="343" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G35" s="343" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H35" s="424" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I35" s="364">
         <f>(H35-$E$27)+$H$2</f>
         <v/>
@@ -6959,11 +7199,21 @@
         <f>SetPnt_P_1</f>
         <v/>
       </c>
-      <c r="D36" s="425" t="n"/>
-      <c r="E36" s="344" t="n"/>
-      <c r="F36" s="344" t="n"/>
-      <c r="G36" s="344" t="n"/>
-      <c r="H36" s="426" t="n"/>
+      <c r="D36" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E36" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="344" t="n">
+        <v>-156.5579745837849</v>
+      </c>
+      <c r="G36" s="344" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H36" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I36" s="365">
         <f>(H36-$E$27)+$H$2</f>
         <v/>
@@ -7018,11 +7268,21 @@
         <f>SetPnt_P_2</f>
         <v/>
       </c>
-      <c r="D37" s="425" t="n"/>
-      <c r="E37" s="344" t="n"/>
-      <c r="F37" s="344" t="n"/>
-      <c r="G37" s="344" t="n"/>
-      <c r="H37" s="426" t="n"/>
+      <c r="D37" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E37" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="344" t="n">
+        <v>-156.5579745837849</v>
+      </c>
+      <c r="G37" s="344" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H37" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I37" s="365">
         <f>(H37-$E$27)+$H$2</f>
         <v/>
@@ -7077,11 +7337,21 @@
         <f>SetPnt_P_3</f>
         <v/>
       </c>
-      <c r="D38" s="425" t="n"/>
-      <c r="E38" s="344" t="n"/>
-      <c r="F38" s="344" t="n"/>
-      <c r="G38" s="344" t="n"/>
-      <c r="H38" s="426" t="n"/>
+      <c r="D38" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E38" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="344" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G38" s="344" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H38" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I38" s="365">
         <f>(H38-$E$27)+$H$2</f>
         <v/>
@@ -7136,11 +7406,21 @@
         <f>SetPnt_P_4</f>
         <v/>
       </c>
-      <c r="D39" s="425" t="n"/>
-      <c r="E39" s="344" t="n"/>
-      <c r="F39" s="344" t="n"/>
-      <c r="G39" s="344" t="n"/>
-      <c r="H39" s="426" t="n"/>
+      <c r="D39" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E39" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="344" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G39" s="344" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H39" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I39" s="365">
         <f>(H39-$E$27)+$H$2</f>
         <v/>
@@ -7195,11 +7475,21 @@
         <f>SetPnt_P_5</f>
         <v/>
       </c>
-      <c r="D40" s="425" t="n"/>
-      <c r="E40" s="344" t="n"/>
-      <c r="F40" s="344" t="n"/>
-      <c r="G40" s="344" t="n"/>
-      <c r="H40" s="426" t="n"/>
+      <c r="D40" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E40" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="344" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G40" s="344" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H40" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I40" s="365">
         <f>(H40-$E$27)+$H$2</f>
         <v/>
@@ -7254,11 +7544,21 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D41" s="423" t="n"/>
-      <c r="E41" s="343" t="n"/>
-      <c r="F41" s="343" t="n"/>
-      <c r="G41" s="343" t="n"/>
-      <c r="H41" s="424" t="n"/>
+      <c r="D41" s="423" t="n">
+        <v>837</v>
+      </c>
+      <c r="E41" s="343" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="343" t="n">
+        <v>-156.5579745837849</v>
+      </c>
+      <c r="G41" s="343" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H41" s="424" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I41" s="364">
         <f>(H41-$E$27)+$H$2</f>
         <v/>
@@ -7313,11 +7613,21 @@
         <f>SetPnt_P_1</f>
         <v/>
       </c>
-      <c r="D42" s="425" t="n"/>
-      <c r="E42" s="344" t="n"/>
-      <c r="F42" s="344" t="n"/>
-      <c r="G42" s="344" t="n"/>
-      <c r="H42" s="426" t="n"/>
+      <c r="D42" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E42" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="344" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G42" s="344" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H42" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I42" s="365">
         <f>(H42-$E$27)+$H$2</f>
         <v/>
@@ -7372,11 +7682,21 @@
         <f>SetPnt_P_2</f>
         <v/>
       </c>
-      <c r="D43" s="425" t="n"/>
-      <c r="E43" s="344" t="n"/>
-      <c r="F43" s="344" t="n"/>
-      <c r="G43" s="344" t="n"/>
-      <c r="H43" s="426" t="n"/>
+      <c r="D43" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E43" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="344" t="n">
+        <v>-156.5579745837849</v>
+      </c>
+      <c r="G43" s="344" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H43" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I43" s="365">
         <f>(H43-$E$27)+$H$2</f>
         <v/>
@@ -7431,11 +7751,21 @@
         <f>SetPnt_P_3</f>
         <v/>
       </c>
-      <c r="D44" s="425" t="n"/>
-      <c r="E44" s="344" t="n"/>
-      <c r="F44" s="344" t="n"/>
-      <c r="G44" s="344" t="n"/>
-      <c r="H44" s="426" t="n"/>
+      <c r="D44" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E44" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="344" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G44" s="344" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H44" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I44" s="365">
         <f>(H44-$E$27)+$H$2</f>
         <v/>
@@ -7490,11 +7820,21 @@
         <f>SetPnt_P_4</f>
         <v/>
       </c>
-      <c r="D45" s="425" t="n"/>
-      <c r="E45" s="344" t="n"/>
-      <c r="F45" s="344" t="n"/>
-      <c r="G45" s="344" t="n"/>
-      <c r="H45" s="426" t="n"/>
+      <c r="D45" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E45" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="344" t="n">
+        <v>-157.0411782090434</v>
+      </c>
+      <c r="G45" s="344" t="n">
+        <v>-1.1772</v>
+      </c>
+      <c r="H45" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I45" s="365">
         <f>(H45-$E$27)+$H$2</f>
         <v/>
@@ -8681,7 +9021,7 @@
       <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col width="25.88671875" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
@@ -10272,7 +10612,7 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col width="15.5546875" customWidth="1" min="1" max="1"/>
     <col width="19.6640625" customWidth="1" min="2" max="2"/>
@@ -16495,7 +16835,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col width="14.33203125" customWidth="1" min="1" max="1"/>
     <col width="19.6640625" customWidth="1" min="2" max="2"/>
@@ -22692,7 +23032,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="13.5546875" customWidth="1" min="3" max="3"/>
@@ -23857,7 +24197,7 @@
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="3" customWidth="1" min="1" max="1"/>
     <col width="3.5546875" customWidth="1" min="2" max="2"/>
@@ -25366,8 +25706,8 @@
     <mergeCell ref="F16:M16"/>
     <mergeCell ref="G98:H98"/>
     <mergeCell ref="G70:H70"/>
+    <mergeCell ref="L102:L103"/>
     <mergeCell ref="G97:H97"/>
-    <mergeCell ref="L102:L103"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="I70:J70"/>
     <mergeCell ref="I91:J91"/>

--- a/python/Codice_Progetto/Certificati_Euramet_Completi/Default.xlsx
+++ b/python/Codice_Progetto/Certificati_Euramet_Completi/Default.xlsx
@@ -5315,10 +5315,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="419" t="n">
-        <v>-156.5579745837849</v>
+        <v>8.214461629396116</v>
       </c>
       <c r="G7" s="419" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H7" s="420" t="n">
         <v>0.001</v>
@@ -5384,10 +5384,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="339" t="n">
-        <v>-157.0411782090434</v>
+        <v>0</v>
       </c>
       <c r="G8" s="339" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H8" s="422" t="n">
         <v>0.001</v>
@@ -5453,10 +5453,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="339" t="n">
-        <v>-156.5579745837849</v>
+        <v>0</v>
       </c>
       <c r="G9" s="339" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H9" s="422" t="n">
         <v>0.001</v>
@@ -5522,10 +5522,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="339" t="n">
-        <v>-157.0411782090434</v>
+        <v>0</v>
       </c>
       <c r="G10" s="339" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H10" s="422" t="n">
         <v>0.001</v>
@@ -5591,10 +5591,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="339" t="n">
-        <v>-156.5579745837849</v>
+        <v>0</v>
       </c>
       <c r="G11" s="339" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H11" s="422" t="n">
         <v>0.001</v>
@@ -5660,10 +5660,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="339" t="n">
-        <v>-157.0411782090434</v>
+        <v>0</v>
       </c>
       <c r="G12" s="339" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H12" s="422" t="n">
         <v>0.001</v>
@@ -5729,10 +5729,10 @@
         <v>0</v>
       </c>
       <c r="F13" s="343" t="n">
-        <v>-156.5579745837849</v>
+        <v>0</v>
       </c>
       <c r="G13" s="343" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H13" s="424" t="n">
         <v>0.001</v>
@@ -5798,10 +5798,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="344" t="n">
-        <v>-157.0411782090434</v>
+        <v>0</v>
       </c>
       <c r="G14" s="344" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H14" s="426" t="n">
         <v>0.001</v>
@@ -5867,10 +5867,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="344" t="n">
-        <v>-157.0411782090434</v>
+        <v>0</v>
       </c>
       <c r="G15" s="344" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H15" s="426" t="n">
         <v>0.001</v>
@@ -5936,10 +5936,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="344" t="n">
-        <v>-157.0411782090434</v>
+        <v>0</v>
       </c>
       <c r="G16" s="344" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H16" s="426" t="n">
         <v>0.001</v>
@@ -6005,10 +6005,10 @@
         <v>0</v>
       </c>
       <c r="F17" s="344" t="n">
-        <v>-157.0411782090434</v>
+        <v>0</v>
       </c>
       <c r="G17" s="344" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H17" s="426" t="n">
         <v>0.001</v>
@@ -6074,10 +6074,10 @@
         <v>0</v>
       </c>
       <c r="F18" s="344" t="n">
-        <v>-157.0411782090434</v>
+        <v>0</v>
       </c>
       <c r="G18" s="344" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H18" s="426" t="n">
         <v>0.001</v>
@@ -6143,10 +6143,10 @@
         <v>0</v>
       </c>
       <c r="F19" s="343" t="n">
-        <v>-156.5579745837849</v>
+        <v>0</v>
       </c>
       <c r="G19" s="343" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H19" s="424" t="n">
         <v>0.001</v>
@@ -6212,10 +6212,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="344" t="n">
-        <v>-157.0411782090434</v>
+        <v>0</v>
       </c>
       <c r="G20" s="344" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H20" s="426" t="n">
         <v>0.001</v>
@@ -6281,10 +6281,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="344" t="n">
-        <v>-157.0411782090434</v>
+        <v>0</v>
       </c>
       <c r="G21" s="344" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H21" s="426" t="n">
         <v>0.001</v>
@@ -6343,21 +6343,11 @@
         <f>SetPnt_N_3</f>
         <v/>
       </c>
-      <c r="D22" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E22" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="344" t="n">
-        <v>-156.5579745837849</v>
-      </c>
-      <c r="G22" s="344" t="n">
-        <v>-1.1772</v>
-      </c>
-      <c r="H22" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D22" s="425" t="n"/>
+      <c r="E22" s="344" t="n"/>
+      <c r="F22" s="344" t="n"/>
+      <c r="G22" s="344" t="n"/>
+      <c r="H22" s="426" t="n"/>
       <c r="I22" s="365">
         <f>(H22-$E$5)+$H$2</f>
         <v/>
@@ -6412,21 +6402,11 @@
         <f>SetPnt_N_4</f>
         <v/>
       </c>
-      <c r="D23" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E23" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="344" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G23" s="344" t="n">
-        <v>-1.1772</v>
-      </c>
-      <c r="H23" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D23" s="425" t="n"/>
+      <c r="E23" s="344" t="n"/>
+      <c r="F23" s="344" t="n"/>
+      <c r="G23" s="344" t="n"/>
+      <c r="H23" s="426" t="n"/>
       <c r="I23" s="365">
         <f>(H23-$E$5)+$H$2</f>
         <v/>
@@ -6723,10 +6703,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="419" t="n">
-        <v>-157.0411782090434</v>
+        <v>5.798443503103148</v>
       </c>
       <c r="G29" s="419" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H29" s="420" t="n">
         <v>0.001</v>
@@ -6792,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="F30" s="339" t="n">
-        <v>-156.5579745837849</v>
+        <v>26.09299576396414</v>
       </c>
       <c r="G30" s="339" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H30" s="422" t="n">
         <v>0.001</v>
@@ -6861,10 +6841,10 @@
         <v>0</v>
       </c>
       <c r="F31" s="339" t="n">
-        <v>-157.0411782090434</v>
+        <v>9.664072505171912</v>
       </c>
       <c r="G31" s="339" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H31" s="422" t="n">
         <v>0.001</v>
@@ -6930,10 +6910,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="339" t="n">
-        <v>-156.5579745837849</v>
+        <v>21.26095951137819</v>
       </c>
       <c r="G32" s="339" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H32" s="422" t="n">
         <v>0.001</v>
@@ -6999,10 +6979,10 @@
         <v>0</v>
       </c>
       <c r="F33" s="339" t="n">
-        <v>-156.5579745837849</v>
+        <v>0</v>
       </c>
       <c r="G33" s="339" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H33" s="422" t="n">
         <v>0.001</v>
@@ -7068,10 +7048,10 @@
         <v>0</v>
       </c>
       <c r="F34" s="339" t="n">
-        <v>-157.0411782090434</v>
+        <v>0</v>
       </c>
       <c r="G34" s="339" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H34" s="422" t="n">
         <v>0.001</v>
@@ -7137,10 +7117,10 @@
         <v>0</v>
       </c>
       <c r="F35" s="343" t="n">
-        <v>-157.0411782090434</v>
+        <v>0</v>
       </c>
       <c r="G35" s="343" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H35" s="424" t="n">
         <v>0.001</v>
@@ -7206,10 +7186,10 @@
         <v>0</v>
       </c>
       <c r="F36" s="344" t="n">
-        <v>-156.5579745837849</v>
+        <v>0</v>
       </c>
       <c r="G36" s="344" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H36" s="426" t="n">
         <v>0.001</v>
@@ -7275,10 +7255,10 @@
         <v>0</v>
       </c>
       <c r="F37" s="344" t="n">
-        <v>-156.5579745837849</v>
+        <v>0</v>
       </c>
       <c r="G37" s="344" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H37" s="426" t="n">
         <v>0.001</v>
@@ -7344,10 +7324,10 @@
         <v>0</v>
       </c>
       <c r="F38" s="344" t="n">
-        <v>-157.0411782090434</v>
+        <v>0</v>
       </c>
       <c r="G38" s="344" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H38" s="426" t="n">
         <v>0.001</v>
@@ -7413,10 +7393,10 @@
         <v>0</v>
       </c>
       <c r="F39" s="344" t="n">
-        <v>-157.0411782090434</v>
+        <v>0</v>
       </c>
       <c r="G39" s="344" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H39" s="426" t="n">
         <v>0.001</v>
@@ -7482,10 +7462,10 @@
         <v>0</v>
       </c>
       <c r="F40" s="344" t="n">
-        <v>-157.0411782090434</v>
+        <v>0</v>
       </c>
       <c r="G40" s="344" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H40" s="426" t="n">
         <v>0.001</v>
@@ -7551,10 +7531,10 @@
         <v>0</v>
       </c>
       <c r="F41" s="343" t="n">
-        <v>-156.5579745837849</v>
+        <v>0</v>
       </c>
       <c r="G41" s="343" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H41" s="424" t="n">
         <v>0.001</v>
@@ -7620,10 +7600,10 @@
         <v>0</v>
       </c>
       <c r="F42" s="344" t="n">
-        <v>-157.0411782090434</v>
+        <v>0</v>
       </c>
       <c r="G42" s="344" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H42" s="426" t="n">
         <v>0.001</v>
@@ -7689,10 +7669,10 @@
         <v>0</v>
       </c>
       <c r="F43" s="344" t="n">
-        <v>-156.5579745837849</v>
+        <v>7.731258004137531</v>
       </c>
       <c r="G43" s="344" t="n">
-        <v>-1.1772</v>
+        <v>-1.5696</v>
       </c>
       <c r="H43" s="426" t="n">
         <v>0.001</v>
@@ -7751,21 +7731,11 @@
         <f>SetPnt_P_3</f>
         <v/>
       </c>
-      <c r="D44" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E44" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="344" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G44" s="344" t="n">
-        <v>-1.1772</v>
-      </c>
-      <c r="H44" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D44" s="425" t="n"/>
+      <c r="E44" s="344" t="n"/>
+      <c r="F44" s="344" t="n"/>
+      <c r="G44" s="344" t="n"/>
+      <c r="H44" s="426" t="n"/>
       <c r="I44" s="365">
         <f>(H44-$E$27)+$H$2</f>
         <v/>
@@ -7820,21 +7790,11 @@
         <f>SetPnt_P_4</f>
         <v/>
       </c>
-      <c r="D45" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E45" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="344" t="n">
-        <v>-157.0411782090434</v>
-      </c>
-      <c r="G45" s="344" t="n">
-        <v>-1.1772</v>
-      </c>
-      <c r="H45" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D45" s="425" t="n"/>
+      <c r="E45" s="344" t="n"/>
+      <c r="F45" s="344" t="n"/>
+      <c r="G45" s="344" t="n"/>
+      <c r="H45" s="426" t="n"/>
       <c r="I45" s="365">
         <f>(H45-$E$27)+$H$2</f>
         <v/>
@@ -9316,7 +9276,7 @@
         <v/>
       </c>
       <c r="B20" s="6" t="n">
-        <v>2000</v>
+        <v>30</v>
       </c>
       <c r="D20" s="13" t="inlineStr">
         <is>

--- a/python/Codice_Progetto/Certificati_Euramet_Completi/Default.xlsx
+++ b/python/Codice_Progetto/Certificati_Euramet_Completi/Default.xlsx
@@ -5308,21 +5308,11 @@
         <f>SetPnt_N_0</f>
         <v/>
       </c>
-      <c r="D7" s="418" t="n">
-        <v>837</v>
-      </c>
-      <c r="E7" s="419" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="419" t="n">
-        <v>8.214461629396116</v>
-      </c>
-      <c r="G7" s="419" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H7" s="420" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D7" s="418" t="n"/>
+      <c r="E7" s="419" t="n"/>
+      <c r="F7" s="419" t="n"/>
+      <c r="G7" s="419" t="n"/>
+      <c r="H7" s="420" t="n"/>
       <c r="I7" s="364">
         <f>(H7-$E$5)+$H$2</f>
         <v/>
@@ -5377,21 +5367,11 @@
         <f>C_Tar_min</f>
         <v/>
       </c>
-      <c r="D8" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E8" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="339" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H8" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D8" s="421" t="n"/>
+      <c r="E8" s="339" t="n"/>
+      <c r="F8" s="339" t="n"/>
+      <c r="G8" s="339" t="n"/>
+      <c r="H8" s="422" t="n"/>
       <c r="I8" s="365">
         <f>(H8-$E$5)+$H$2</f>
         <v/>
@@ -5446,21 +5426,11 @@
         <f>SetPnt_N_0</f>
         <v/>
       </c>
-      <c r="D9" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E9" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="339" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H9" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D9" s="421" t="n"/>
+      <c r="E9" s="339" t="n"/>
+      <c r="F9" s="339" t="n"/>
+      <c r="G9" s="339" t="n"/>
+      <c r="H9" s="422" t="n"/>
       <c r="I9" s="365">
         <f>(H9-$E$5)+$H$2</f>
         <v/>
@@ -5515,21 +5485,11 @@
         <f>C_Tar_min</f>
         <v/>
       </c>
-      <c r="D10" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E10" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="339" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H10" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D10" s="421" t="n"/>
+      <c r="E10" s="339" t="n"/>
+      <c r="F10" s="339" t="n"/>
+      <c r="G10" s="339" t="n"/>
+      <c r="H10" s="422" t="n"/>
       <c r="I10" s="365">
         <f>(H10-$E$5)+$H$2</f>
         <v/>
@@ -5584,21 +5544,11 @@
         <f>SetPnt_N_0</f>
         <v/>
       </c>
-      <c r="D11" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E11" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="339" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H11" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D11" s="421" t="n"/>
+      <c r="E11" s="339" t="n"/>
+      <c r="F11" s="339" t="n"/>
+      <c r="G11" s="339" t="n"/>
+      <c r="H11" s="422" t="n"/>
       <c r="I11" s="365">
         <f>(H11-$E$5)+$H$2</f>
         <v/>
@@ -5653,21 +5603,11 @@
         <f>C_Tar_min</f>
         <v/>
       </c>
-      <c r="D12" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E12" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="339" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H12" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D12" s="421" t="n"/>
+      <c r="E12" s="339" t="n"/>
+      <c r="F12" s="339" t="n"/>
+      <c r="G12" s="339" t="n"/>
+      <c r="H12" s="422" t="n"/>
       <c r="I12" s="365">
         <f>(H12-$E$5)+$H$2</f>
         <v/>
@@ -5722,21 +5662,11 @@
         <f>SetPnt_N_0</f>
         <v/>
       </c>
-      <c r="D13" s="423" t="n">
-        <v>837</v>
-      </c>
-      <c r="E13" s="343" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="343" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="343" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H13" s="424" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D13" s="423" t="n"/>
+      <c r="E13" s="343" t="n"/>
+      <c r="F13" s="343" t="n"/>
+      <c r="G13" s="343" t="n"/>
+      <c r="H13" s="424" t="n"/>
       <c r="I13" s="364">
         <f>(H13-$E$5)+$H$2</f>
         <v/>
@@ -5791,21 +5721,11 @@
         <f>SetPnt_N_1</f>
         <v/>
       </c>
-      <c r="D14" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E14" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="344" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H14" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D14" s="425" t="n"/>
+      <c r="E14" s="344" t="n"/>
+      <c r="F14" s="344" t="n"/>
+      <c r="G14" s="344" t="n"/>
+      <c r="H14" s="426" t="n"/>
       <c r="I14" s="365">
         <f>(H14-$E$5)+$H$2</f>
         <v/>
@@ -5860,21 +5780,11 @@
         <f>SetPnt_N_2</f>
         <v/>
       </c>
-      <c r="D15" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E15" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="344" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H15" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D15" s="425" t="n"/>
+      <c r="E15" s="344" t="n"/>
+      <c r="F15" s="344" t="n"/>
+      <c r="G15" s="344" t="n"/>
+      <c r="H15" s="426" t="n"/>
       <c r="I15" s="365">
         <f>(H15-$E$5)+$H$2</f>
         <v/>
@@ -5929,21 +5839,11 @@
         <f>SetPnt_N_3</f>
         <v/>
       </c>
-      <c r="D16" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E16" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="344" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H16" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D16" s="425" t="n"/>
+      <c r="E16" s="344" t="n"/>
+      <c r="F16" s="344" t="n"/>
+      <c r="G16" s="344" t="n"/>
+      <c r="H16" s="426" t="n"/>
       <c r="I16" s="365">
         <f>(H16-$E$5)+$H$2</f>
         <v/>
@@ -5998,21 +5898,11 @@
         <f>SetPnt_N_4</f>
         <v/>
       </c>
-      <c r="D17" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E17" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="344" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H17" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D17" s="425" t="n"/>
+      <c r="E17" s="344" t="n"/>
+      <c r="F17" s="344" t="n"/>
+      <c r="G17" s="344" t="n"/>
+      <c r="H17" s="426" t="n"/>
       <c r="I17" s="365">
         <f>(H17-$E$5)+$H$2</f>
         <v/>
@@ -6067,21 +5957,11 @@
         <f>SetPnt_N_5</f>
         <v/>
       </c>
-      <c r="D18" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E18" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="344" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H18" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D18" s="425" t="n"/>
+      <c r="E18" s="344" t="n"/>
+      <c r="F18" s="344" t="n"/>
+      <c r="G18" s="344" t="n"/>
+      <c r="H18" s="426" t="n"/>
       <c r="I18" s="365">
         <f>(H18-$E$5)+$H$2</f>
         <v/>
@@ -6136,21 +6016,11 @@
         <f>SetPnt_N_0</f>
         <v/>
       </c>
-      <c r="D19" s="423" t="n">
-        <v>837</v>
-      </c>
-      <c r="E19" s="343" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="343" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="343" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H19" s="424" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D19" s="423" t="n"/>
+      <c r="E19" s="343" t="n"/>
+      <c r="F19" s="343" t="n"/>
+      <c r="G19" s="343" t="n"/>
+      <c r="H19" s="424" t="n"/>
       <c r="I19" s="364">
         <f>(H19-$E$5)+$H$2</f>
         <v/>
@@ -6205,21 +6075,11 @@
         <f>SetPnt_N_1</f>
         <v/>
       </c>
-      <c r="D20" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E20" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="344" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H20" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D20" s="425" t="n"/>
+      <c r="E20" s="344" t="n"/>
+      <c r="F20" s="344" t="n"/>
+      <c r="G20" s="344" t="n"/>
+      <c r="H20" s="426" t="n"/>
       <c r="I20" s="365">
         <f>(H20-$E$5)+$H$2</f>
         <v/>
@@ -6274,21 +6134,11 @@
         <f>SetPnt_N_2</f>
         <v/>
       </c>
-      <c r="D21" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E21" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="344" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H21" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D21" s="425" t="n"/>
+      <c r="E21" s="344" t="n"/>
+      <c r="F21" s="344" t="n"/>
+      <c r="G21" s="344" t="n"/>
+      <c r="H21" s="426" t="n"/>
       <c r="I21" s="365">
         <f>(H21-$E$5)+$H$2</f>
         <v/>
@@ -6703,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="419" t="n">
-        <v>5.798443503103148</v>
+        <v>0</v>
       </c>
       <c r="G29" s="419" t="n">
         <v>-1.5696</v>
@@ -6772,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="339" t="n">
-        <v>26.09299576396414</v>
+        <v>32.74070624479451</v>
       </c>
       <c r="G30" s="339" t="n">
         <v>-1.5696</v>
@@ -6841,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="339" t="n">
-        <v>9.664072505171912</v>
+        <v>0</v>
       </c>
       <c r="G31" s="339" t="n">
         <v>-1.5696</v>
@@ -6910,7 +6760,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="339" t="n">
-        <v>21.26095951137819</v>
+        <v>32.85784651758447</v>
       </c>
       <c r="G32" s="339" t="n">
         <v>-1.5696</v>
@@ -6979,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="339" t="n">
-        <v>0</v>
+        <v>32.85784651758447</v>
       </c>
       <c r="G33" s="339" t="n">
         <v>-1.5696</v>
@@ -7048,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="339" t="n">
-        <v>0</v>
+        <v>32.85784651758447</v>
       </c>
       <c r="G34" s="339" t="n">
         <v>-1.5696</v>
@@ -7255,7 +7105,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="344" t="n">
-        <v>0</v>
+        <v>24.07232605833729</v>
       </c>
       <c r="G37" s="344" t="n">
         <v>-1.5696</v>
@@ -7324,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="344" t="n">
-        <v>0</v>
+        <v>24.07232605833729</v>
       </c>
       <c r="G38" s="344" t="n">
         <v>-1.5696</v>
@@ -7455,21 +7305,11 @@
         <f>SetPnt_P_5</f>
         <v/>
       </c>
-      <c r="D40" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E40" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="344" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H40" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D40" s="425" t="n"/>
+      <c r="E40" s="344" t="n"/>
+      <c r="F40" s="344" t="n"/>
+      <c r="G40" s="344" t="n"/>
+      <c r="H40" s="426" t="n"/>
       <c r="I40" s="365">
         <f>(H40-$E$27)+$H$2</f>
         <v/>
@@ -7524,21 +7364,11 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D41" s="423" t="n">
-        <v>837</v>
-      </c>
-      <c r="E41" s="343" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="343" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="343" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H41" s="424" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D41" s="423" t="n"/>
+      <c r="E41" s="343" t="n"/>
+      <c r="F41" s="343" t="n"/>
+      <c r="G41" s="343" t="n"/>
+      <c r="H41" s="424" t="n"/>
       <c r="I41" s="364">
         <f>(H41-$E$27)+$H$2</f>
         <v/>
@@ -7593,21 +7423,11 @@
         <f>SetPnt_P_1</f>
         <v/>
       </c>
-      <c r="D42" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E42" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="344" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H42" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D42" s="425" t="n"/>
+      <c r="E42" s="344" t="n"/>
+      <c r="F42" s="344" t="n"/>
+      <c r="G42" s="344" t="n"/>
+      <c r="H42" s="426" t="n"/>
       <c r="I42" s="365">
         <f>(H42-$E$27)+$H$2</f>
         <v/>
@@ -7662,21 +7482,11 @@
         <f>SetPnt_P_2</f>
         <v/>
       </c>
-      <c r="D43" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E43" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="344" t="n">
-        <v>7.731258004137531</v>
-      </c>
-      <c r="G43" s="344" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H43" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D43" s="425" t="n"/>
+      <c r="E43" s="344" t="n"/>
+      <c r="F43" s="344" t="n"/>
+      <c r="G43" s="344" t="n"/>
+      <c r="H43" s="426" t="n"/>
       <c r="I43" s="365">
         <f>(H43-$E$27)+$H$2</f>
         <v/>

--- a/python/Codice_Progetto/Certificati_Euramet_Completi/Default.xlsx
+++ b/python/Codice_Progetto/Certificati_Euramet_Completi/Default.xlsx
@@ -5108,7 +5108,7 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col width="9" customWidth="1" style="363" min="1" max="1"/>
     <col width="10.33203125" customWidth="1" style="363" min="2" max="2"/>
@@ -6546,21 +6546,11 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D29" s="418" t="n">
-        <v>837</v>
-      </c>
-      <c r="E29" s="419" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="419" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="419" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H29" s="420" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D29" s="418" t="n"/>
+      <c r="E29" s="419" t="n"/>
+      <c r="F29" s="419" t="n"/>
+      <c r="G29" s="419" t="n"/>
+      <c r="H29" s="420" t="n"/>
       <c r="I29" s="364">
         <f>(H29-$E$27)+$H$2</f>
         <v/>
@@ -6615,21 +6605,11 @@
         <f>C_Tar_max</f>
         <v/>
       </c>
-      <c r="D30" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E30" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="339" t="n">
-        <v>32.74070624479451</v>
-      </c>
-      <c r="G30" s="339" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H30" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D30" s="421" t="n"/>
+      <c r="E30" s="339" t="n"/>
+      <c r="F30" s="339" t="n"/>
+      <c r="G30" s="339" t="n"/>
+      <c r="H30" s="422" t="n"/>
       <c r="I30" s="365">
         <f>(H30-$E$27)+$H$2</f>
         <v/>
@@ -6684,21 +6664,11 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D31" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E31" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="339" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H31" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D31" s="421" t="n"/>
+      <c r="E31" s="339" t="n"/>
+      <c r="F31" s="339" t="n"/>
+      <c r="G31" s="339" t="n"/>
+      <c r="H31" s="422" t="n"/>
       <c r="I31" s="365">
         <f>(H31-$E$27)+$H$2</f>
         <v/>
@@ -6753,21 +6723,11 @@
         <f>C_Tar_max</f>
         <v/>
       </c>
-      <c r="D32" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E32" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="339" t="n">
-        <v>32.85784651758447</v>
-      </c>
-      <c r="G32" s="339" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H32" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D32" s="421" t="n"/>
+      <c r="E32" s="339" t="n"/>
+      <c r="F32" s="339" t="n"/>
+      <c r="G32" s="339" t="n"/>
+      <c r="H32" s="422" t="n"/>
       <c r="I32" s="365">
         <f>(H32-$E$27)+$H$2</f>
         <v/>
@@ -6822,21 +6782,11 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D33" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E33" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="339" t="n">
-        <v>32.85784651758447</v>
-      </c>
-      <c r="G33" s="339" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H33" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D33" s="421" t="n"/>
+      <c r="E33" s="339" t="n"/>
+      <c r="F33" s="339" t="n"/>
+      <c r="G33" s="339" t="n"/>
+      <c r="H33" s="422" t="n"/>
       <c r="I33" s="365">
         <f>(H33-$E$27)+$H$2</f>
         <v/>
@@ -6891,21 +6841,11 @@
         <f>C_Tar_max</f>
         <v/>
       </c>
-      <c r="D34" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E34" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="339" t="n">
-        <v>32.85784651758447</v>
-      </c>
-      <c r="G34" s="339" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H34" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D34" s="421" t="n"/>
+      <c r="E34" s="339" t="n"/>
+      <c r="F34" s="339" t="n"/>
+      <c r="G34" s="339" t="n"/>
+      <c r="H34" s="422" t="n"/>
       <c r="I34" s="365">
         <f>(H34-$E$27)+$H$2</f>
         <v/>
@@ -6960,21 +6900,11 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D35" s="423" t="n">
-        <v>837</v>
-      </c>
-      <c r="E35" s="343" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="343" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="343" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H35" s="424" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D35" s="423" t="n"/>
+      <c r="E35" s="343" t="n"/>
+      <c r="F35" s="343" t="n"/>
+      <c r="G35" s="343" t="n"/>
+      <c r="H35" s="424" t="n"/>
       <c r="I35" s="364">
         <f>(H35-$E$27)+$H$2</f>
         <v/>
@@ -7029,21 +6959,11 @@
         <f>SetPnt_P_1</f>
         <v/>
       </c>
-      <c r="D36" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E36" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="344" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H36" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D36" s="425" t="n"/>
+      <c r="E36" s="344" t="n"/>
+      <c r="F36" s="344" t="n"/>
+      <c r="G36" s="344" t="n"/>
+      <c r="H36" s="426" t="n"/>
       <c r="I36" s="365">
         <f>(H36-$E$27)+$H$2</f>
         <v/>
@@ -7098,21 +7018,11 @@
         <f>SetPnt_P_2</f>
         <v/>
       </c>
-      <c r="D37" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E37" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="344" t="n">
-        <v>24.07232605833729</v>
-      </c>
-      <c r="G37" s="344" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H37" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D37" s="425" t="n"/>
+      <c r="E37" s="344" t="n"/>
+      <c r="F37" s="344" t="n"/>
+      <c r="G37" s="344" t="n"/>
+      <c r="H37" s="426" t="n"/>
       <c r="I37" s="365">
         <f>(H37-$E$27)+$H$2</f>
         <v/>
@@ -7167,21 +7077,11 @@
         <f>SetPnt_P_3</f>
         <v/>
       </c>
-      <c r="D38" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E38" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="344" t="n">
-        <v>24.07232605833729</v>
-      </c>
-      <c r="G38" s="344" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H38" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D38" s="425" t="n"/>
+      <c r="E38" s="344" t="n"/>
+      <c r="F38" s="344" t="n"/>
+      <c r="G38" s="344" t="n"/>
+      <c r="H38" s="426" t="n"/>
       <c r="I38" s="365">
         <f>(H38-$E$27)+$H$2</f>
         <v/>
@@ -7236,21 +7136,11 @@
         <f>SetPnt_P_4</f>
         <v/>
       </c>
-      <c r="D39" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E39" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="344" t="n">
-        <v>-1.5696</v>
-      </c>
-      <c r="H39" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D39" s="425" t="n"/>
+      <c r="E39" s="344" t="n"/>
+      <c r="F39" s="344" t="n"/>
+      <c r="G39" s="344" t="n"/>
+      <c r="H39" s="426" t="n"/>
       <c r="I39" s="365">
         <f>(H39-$E$27)+$H$2</f>
         <v/>
@@ -8791,7 +8681,7 @@
       <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col width="25.88671875" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
@@ -9086,7 +8976,7 @@
         <v/>
       </c>
       <c r="B20" s="6" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D20" s="13" t="inlineStr">
         <is>
@@ -10382,7 +10272,7 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col width="15.5546875" customWidth="1" min="1" max="1"/>
     <col width="19.6640625" customWidth="1" min="2" max="2"/>
@@ -16605,7 +16495,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col width="14.33203125" customWidth="1" min="1" max="1"/>
     <col width="19.6640625" customWidth="1" min="2" max="2"/>
@@ -22802,7 +22692,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="13.5546875" customWidth="1" min="3" max="3"/>
@@ -23967,7 +23857,7 @@
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col width="3" customWidth="1" min="1" max="1"/>
     <col width="3.5546875" customWidth="1" min="2" max="2"/>
@@ -25476,8 +25366,8 @@
     <mergeCell ref="F16:M16"/>
     <mergeCell ref="G98:H98"/>
     <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G97:H97"/>
     <mergeCell ref="L102:L103"/>
-    <mergeCell ref="G97:H97"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="I70:J70"/>
     <mergeCell ref="I91:J91"/>

--- a/python/Codice_Progetto/Certificati_Euramet_Completi/Default.xlsx
+++ b/python/Codice_Progetto/Certificati_Euramet_Completi/Default.xlsx
@@ -5108,7 +5108,7 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="0"/>
   <cols>
     <col width="9" customWidth="1" style="363" min="1" max="1"/>
     <col width="10.33203125" customWidth="1" style="363" min="2" max="2"/>
@@ -6546,11 +6546,21 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D29" s="418" t="n"/>
-      <c r="E29" s="419" t="n"/>
-      <c r="F29" s="419" t="n"/>
-      <c r="G29" s="419" t="n"/>
-      <c r="H29" s="420" t="n"/>
+      <c r="D29" s="418" t="n">
+        <v>837</v>
+      </c>
+      <c r="E29" s="419" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="419" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="419" t="n">
+        <v>-1.3734</v>
+      </c>
+      <c r="H29" s="420" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I29" s="364">
         <f>(H29-$E$27)+$H$2</f>
         <v/>
@@ -6605,11 +6615,21 @@
         <f>C_Tar_max</f>
         <v/>
       </c>
-      <c r="D30" s="421" t="n"/>
-      <c r="E30" s="339" t="n"/>
-      <c r="F30" s="339" t="n"/>
-      <c r="G30" s="339" t="n"/>
-      <c r="H30" s="422" t="n"/>
+      <c r="D30" s="421" t="n">
+        <v>837</v>
+      </c>
+      <c r="E30" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="339" t="n">
+        <v>33.01885858535863</v>
+      </c>
+      <c r="G30" s="339" t="n">
+        <v>-1.3734</v>
+      </c>
+      <c r="H30" s="422" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I30" s="365">
         <f>(H30-$E$27)+$H$2</f>
         <v/>
@@ -6664,11 +6684,21 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D31" s="421" t="n"/>
-      <c r="E31" s="339" t="n"/>
-      <c r="F31" s="339" t="n"/>
-      <c r="G31" s="339" t="n"/>
-      <c r="H31" s="422" t="n"/>
+      <c r="D31" s="421" t="n">
+        <v>837</v>
+      </c>
+      <c r="E31" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="339" t="n">
+        <v>-1.3734</v>
+      </c>
+      <c r="H31" s="422" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I31" s="365">
         <f>(H31-$E$27)+$H$2</f>
         <v/>
@@ -6723,11 +6753,21 @@
         <f>C_Tar_max</f>
         <v/>
       </c>
-      <c r="D32" s="421" t="n"/>
-      <c r="E32" s="339" t="n"/>
-      <c r="F32" s="339" t="n"/>
-      <c r="G32" s="339" t="n"/>
-      <c r="H32" s="422" t="n"/>
+      <c r="D32" s="421" t="n">
+        <v>837</v>
+      </c>
+      <c r="E32" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="339" t="n">
+        <v>-1.3734</v>
+      </c>
+      <c r="H32" s="422" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I32" s="365">
         <f>(H32-$E$27)+$H$2</f>
         <v/>
@@ -6782,11 +6822,21 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D33" s="421" t="n"/>
-      <c r="E33" s="339" t="n"/>
-      <c r="F33" s="339" t="n"/>
-      <c r="G33" s="339" t="n"/>
-      <c r="H33" s="422" t="n"/>
+      <c r="D33" s="421" t="n">
+        <v>837</v>
+      </c>
+      <c r="E33" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="339" t="n">
+        <v>-1.3734</v>
+      </c>
+      <c r="H33" s="422" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I33" s="365">
         <f>(H33-$E$27)+$H$2</f>
         <v/>
@@ -6841,11 +6891,21 @@
         <f>C_Tar_max</f>
         <v/>
       </c>
-      <c r="D34" s="421" t="n"/>
-      <c r="E34" s="339" t="n"/>
-      <c r="F34" s="339" t="n"/>
-      <c r="G34" s="339" t="n"/>
-      <c r="H34" s="422" t="n"/>
+      <c r="D34" s="421" t="n">
+        <v>837</v>
+      </c>
+      <c r="E34" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="339" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="339" t="n">
+        <v>-1.3734</v>
+      </c>
+      <c r="H34" s="422" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I34" s="365">
         <f>(H34-$E$27)+$H$2</f>
         <v/>
@@ -6900,11 +6960,21 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D35" s="423" t="n"/>
-      <c r="E35" s="343" t="n"/>
-      <c r="F35" s="343" t="n"/>
-      <c r="G35" s="343" t="n"/>
-      <c r="H35" s="424" t="n"/>
+      <c r="D35" s="423" t="n">
+        <v>837</v>
+      </c>
+      <c r="E35" s="343" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="343" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="343" t="n">
+        <v>-1.3734</v>
+      </c>
+      <c r="H35" s="424" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I35" s="364">
         <f>(H35-$E$27)+$H$2</f>
         <v/>
@@ -6959,11 +7029,21 @@
         <f>SetPnt_P_1</f>
         <v/>
       </c>
-      <c r="D36" s="425" t="n"/>
-      <c r="E36" s="344" t="n"/>
-      <c r="F36" s="344" t="n"/>
-      <c r="G36" s="344" t="n"/>
-      <c r="H36" s="426" t="n"/>
+      <c r="D36" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E36" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="344" t="n">
+        <v>13.59600059397117</v>
+      </c>
+      <c r="G36" s="344" t="n">
+        <v>-1.3734</v>
+      </c>
+      <c r="H36" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I36" s="365">
         <f>(H36-$E$27)+$H$2</f>
         <v/>
@@ -7018,11 +7098,21 @@
         <f>SetPnt_P_2</f>
         <v/>
       </c>
-      <c r="D37" s="425" t="n"/>
-      <c r="E37" s="344" t="n"/>
-      <c r="F37" s="344" t="n"/>
-      <c r="G37" s="344" t="n"/>
-      <c r="H37" s="426" t="n"/>
+      <c r="D37" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E37" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="344" t="n">
+        <v>23.89600104394935</v>
+      </c>
+      <c r="G37" s="344" t="n">
+        <v>-1.3734</v>
+      </c>
+      <c r="H37" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I37" s="365">
         <f>(H37-$E$27)+$H$2</f>
         <v/>
@@ -7077,11 +7167,21 @@
         <f>SetPnt_P_3</f>
         <v/>
       </c>
-      <c r="D38" s="425" t="n"/>
-      <c r="E38" s="344" t="n"/>
-      <c r="F38" s="344" t="n"/>
-      <c r="G38" s="344" t="n"/>
-      <c r="H38" s="426" t="n"/>
+      <c r="D38" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E38" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="344" t="n">
+        <v>-1.3734</v>
+      </c>
+      <c r="H38" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I38" s="365">
         <f>(H38-$E$27)+$H$2</f>
         <v/>
@@ -7136,11 +7236,21 @@
         <f>SetPnt_P_4</f>
         <v/>
       </c>
-      <c r="D39" s="425" t="n"/>
-      <c r="E39" s="344" t="n"/>
-      <c r="F39" s="344" t="n"/>
-      <c r="G39" s="344" t="n"/>
-      <c r="H39" s="426" t="n"/>
+      <c r="D39" s="425" t="n">
+        <v>837</v>
+      </c>
+      <c r="E39" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="344" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="344" t="n">
+        <v>-1.3734</v>
+      </c>
+      <c r="H39" s="426" t="n">
+        <v>0.001</v>
+      </c>
       <c r="I39" s="365">
         <f>(H39-$E$27)+$H$2</f>
         <v/>
@@ -8681,7 +8791,7 @@
       <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col width="25.88671875" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
@@ -8976,7 +9086,7 @@
         <v/>
       </c>
       <c r="B20" s="6" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D20" s="13" t="inlineStr">
         <is>
@@ -10272,7 +10382,7 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col width="15.5546875" customWidth="1" min="1" max="1"/>
     <col width="19.6640625" customWidth="1" min="2" max="2"/>
@@ -16495,7 +16605,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col width="14.33203125" customWidth="1" min="1" max="1"/>
     <col width="19.6640625" customWidth="1" min="2" max="2"/>
@@ -22692,7 +22802,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="13.5546875" customWidth="1" min="3" max="3"/>
@@ -23857,7 +23967,7 @@
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="3" customWidth="1" min="1" max="1"/>
     <col width="3.5546875" customWidth="1" min="2" max="2"/>
@@ -25366,8 +25476,8 @@
     <mergeCell ref="F16:M16"/>
     <mergeCell ref="G98:H98"/>
     <mergeCell ref="G70:H70"/>
+    <mergeCell ref="L102:L103"/>
     <mergeCell ref="G97:H97"/>
-    <mergeCell ref="L102:L103"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="I70:J70"/>
     <mergeCell ref="I91:J91"/>

--- a/python/Codice_Progetto/Certificati_Euramet_Completi/Default.xlsx
+++ b/python/Codice_Progetto/Certificati_Euramet_Completi/Default.xlsx
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="419" t="n">
-        <v>-1.3734</v>
+        <v>7333.993610223642</v>
       </c>
       <c r="H29" s="420" t="n">
         <v>0.001</v>
@@ -6622,10 +6622,10 @@
         <v>0</v>
       </c>
       <c r="F30" s="339" t="n">
-        <v>33.01885858535863</v>
+        <v>210.0915686765074</v>
       </c>
       <c r="G30" s="339" t="n">
-        <v>-1.3734</v>
+        <v>5923.610223642173</v>
       </c>
       <c r="H30" s="422" t="n">
         <v>0.001</v>
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="339" t="n">
-        <v>-1.3734</v>
+        <v>7804.121405750799</v>
       </c>
       <c r="H31" s="422" t="n">
         <v>0.001</v>
@@ -6760,10 +6760,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="339" t="n">
-        <v>0</v>
+        <v>210.0915686765074</v>
       </c>
       <c r="G32" s="339" t="n">
-        <v>-1.3734</v>
+        <v>5735.55910543131</v>
       </c>
       <c r="H32" s="422" t="n">
         <v>0.001</v>
@@ -6832,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="339" t="n">
-        <v>-1.3734</v>
+        <v>7898.14696485623</v>
       </c>
       <c r="H33" s="422" t="n">
         <v>0.001</v>
@@ -6891,21 +6891,11 @@
         <f>C_Tar_max</f>
         <v/>
       </c>
-      <c r="D34" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E34" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="339" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H34" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D34" s="421" t="n"/>
+      <c r="E34" s="339" t="n"/>
+      <c r="F34" s="339" t="n"/>
+      <c r="G34" s="339" t="n"/>
+      <c r="H34" s="422" t="n"/>
       <c r="I34" s="365">
         <f>(H34-$E$27)+$H$2</f>
         <v/>
@@ -6960,21 +6950,11 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D35" s="423" t="n">
-        <v>837</v>
-      </c>
-      <c r="E35" s="343" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="343" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="343" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H35" s="424" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D35" s="423" t="n"/>
+      <c r="E35" s="343" t="n"/>
+      <c r="F35" s="343" t="n"/>
+      <c r="G35" s="343" t="n"/>
+      <c r="H35" s="424" t="n"/>
       <c r="I35" s="364">
         <f>(H35-$E$27)+$H$2</f>
         <v/>
@@ -7029,21 +7009,11 @@
         <f>SetPnt_P_1</f>
         <v/>
       </c>
-      <c r="D36" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E36" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="344" t="n">
-        <v>13.59600059397117</v>
-      </c>
-      <c r="G36" s="344" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H36" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D36" s="425" t="n"/>
+      <c r="E36" s="344" t="n"/>
+      <c r="F36" s="344" t="n"/>
+      <c r="G36" s="344" t="n"/>
+      <c r="H36" s="426" t="n"/>
       <c r="I36" s="365">
         <f>(H36-$E$27)+$H$2</f>
         <v/>
@@ -7098,21 +7068,11 @@
         <f>SetPnt_P_2</f>
         <v/>
       </c>
-      <c r="D37" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E37" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="344" t="n">
-        <v>23.89600104394935</v>
-      </c>
-      <c r="G37" s="344" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H37" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D37" s="425" t="n"/>
+      <c r="E37" s="344" t="n"/>
+      <c r="F37" s="344" t="n"/>
+      <c r="G37" s="344" t="n"/>
+      <c r="H37" s="426" t="n"/>
       <c r="I37" s="365">
         <f>(H37-$E$27)+$H$2</f>
         <v/>
@@ -7167,21 +7127,11 @@
         <f>SetPnt_P_3</f>
         <v/>
       </c>
-      <c r="D38" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E38" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="344" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H38" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D38" s="425" t="n"/>
+      <c r="E38" s="344" t="n"/>
+      <c r="F38" s="344" t="n"/>
+      <c r="G38" s="344" t="n"/>
+      <c r="H38" s="426" t="n"/>
       <c r="I38" s="365">
         <f>(H38-$E$27)+$H$2</f>
         <v/>
@@ -7236,21 +7186,11 @@
         <f>SetPnt_P_4</f>
         <v/>
       </c>
-      <c r="D39" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E39" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="344" t="n">
-        <v>-1.3734</v>
-      </c>
-      <c r="H39" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D39" s="425" t="n"/>
+      <c r="E39" s="344" t="n"/>
+      <c r="F39" s="344" t="n"/>
+      <c r="G39" s="344" t="n"/>
+      <c r="H39" s="426" t="n"/>
       <c r="I39" s="365">
         <f>(H39-$E$27)+$H$2</f>
         <v/>
@@ -9086,7 +9026,7 @@
         <v/>
       </c>
       <c r="B20" s="6" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="D20" s="13" t="inlineStr">
         <is>

--- a/python/Codice_Progetto/Certificati_Euramet_Completi/Default.xlsx
+++ b/python/Codice_Progetto/Certificati_Euramet_Completi/Default.xlsx
@@ -5108,7 +5108,7 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col width="9" customWidth="1" style="363" min="1" max="1"/>
     <col width="10.33203125" customWidth="1" style="363" min="2" max="2"/>
@@ -6546,21 +6546,11 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D29" s="418" t="n">
-        <v>837</v>
-      </c>
-      <c r="E29" s="419" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="419" t="n">
-        <v>3.5316</v>
-      </c>
-      <c r="G29" s="419" t="n">
-        <v>16.2846</v>
-      </c>
-      <c r="H29" s="420" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D29" s="418" t="n"/>
+      <c r="E29" s="419" t="n"/>
+      <c r="F29" s="419" t="n"/>
+      <c r="G29" s="419" t="n"/>
+      <c r="H29" s="420" t="n"/>
       <c r="I29" s="364">
         <f>(H29-$E$27)+$H$2</f>
         <v/>
@@ -6615,21 +6605,11 @@
         <f>C_Tar_max</f>
         <v/>
       </c>
-      <c r="D30" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E30" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="339" t="n">
-        <v>3.3354</v>
-      </c>
-      <c r="G30" s="339" t="n">
-        <v>16.2846</v>
-      </c>
-      <c r="H30" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D30" s="421" t="n"/>
+      <c r="E30" s="339" t="n"/>
+      <c r="F30" s="339" t="n"/>
+      <c r="G30" s="339" t="n"/>
+      <c r="H30" s="422" t="n"/>
       <c r="I30" s="365">
         <f>(H30-$E$27)+$H$2</f>
         <v/>
@@ -6684,21 +6664,11 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D31" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E31" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="339" t="n">
-        <v>3.5316</v>
-      </c>
-      <c r="G31" s="339" t="n">
-        <v>16.4808</v>
-      </c>
-      <c r="H31" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D31" s="421" t="n"/>
+      <c r="E31" s="339" t="n"/>
+      <c r="F31" s="339" t="n"/>
+      <c r="G31" s="339" t="n"/>
+      <c r="H31" s="422" t="n"/>
       <c r="I31" s="365">
         <f>(H31-$E$27)+$H$2</f>
         <v/>
@@ -6753,21 +6723,11 @@
         <f>C_Tar_max</f>
         <v/>
       </c>
-      <c r="D32" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E32" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="339" t="n">
-        <v>3.5316</v>
-      </c>
-      <c r="G32" s="339" t="n">
-        <v>16.4808</v>
-      </c>
-      <c r="H32" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D32" s="421" t="n"/>
+      <c r="E32" s="339" t="n"/>
+      <c r="F32" s="339" t="n"/>
+      <c r="G32" s="339" t="n"/>
+      <c r="H32" s="422" t="n"/>
       <c r="I32" s="365">
         <f>(H32-$E$27)+$H$2</f>
         <v/>
@@ -6822,21 +6782,11 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D33" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E33" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="339" t="n">
-        <v>3.5316</v>
-      </c>
-      <c r="G33" s="339" t="n">
-        <v>16.2846</v>
-      </c>
-      <c r="H33" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D33" s="421" t="n"/>
+      <c r="E33" s="339" t="n"/>
+      <c r="F33" s="339" t="n"/>
+      <c r="G33" s="339" t="n"/>
+      <c r="H33" s="422" t="n"/>
       <c r="I33" s="365">
         <f>(H33-$E$27)+$H$2</f>
         <v/>
@@ -6891,21 +6841,11 @@
         <f>C_Tar_max</f>
         <v/>
       </c>
-      <c r="D34" s="421" t="n">
-        <v>837</v>
-      </c>
-      <c r="E34" s="339" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="339" t="n">
-        <v>3.5316</v>
-      </c>
-      <c r="G34" s="339" t="n">
-        <v>16.4808</v>
-      </c>
-      <c r="H34" s="422" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D34" s="421" t="n"/>
+      <c r="E34" s="339" t="n"/>
+      <c r="F34" s="339" t="n"/>
+      <c r="G34" s="339" t="n"/>
+      <c r="H34" s="422" t="n"/>
       <c r="I34" s="365">
         <f>(H34-$E$27)+$H$2</f>
         <v/>
@@ -6960,21 +6900,11 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D35" s="423" t="n">
-        <v>837</v>
-      </c>
-      <c r="E35" s="343" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="343" t="n">
-        <v>3.3354</v>
-      </c>
-      <c r="G35" s="343" t="n">
-        <v>16.2846</v>
-      </c>
-      <c r="H35" s="424" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D35" s="423" t="n"/>
+      <c r="E35" s="343" t="n"/>
+      <c r="F35" s="343" t="n"/>
+      <c r="G35" s="343" t="n"/>
+      <c r="H35" s="424" t="n"/>
       <c r="I35" s="364">
         <f>(H35-$E$27)+$H$2</f>
         <v/>
@@ -7029,21 +6959,11 @@
         <f>SetPnt_P_1</f>
         <v/>
       </c>
-      <c r="D36" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E36" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="344" t="n">
-        <v>3.5316</v>
-      </c>
-      <c r="G36" s="344" t="n">
-        <v>16.2846</v>
-      </c>
-      <c r="H36" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D36" s="425" t="n"/>
+      <c r="E36" s="344" t="n"/>
+      <c r="F36" s="344" t="n"/>
+      <c r="G36" s="344" t="n"/>
+      <c r="H36" s="426" t="n"/>
       <c r="I36" s="365">
         <f>(H36-$E$27)+$H$2</f>
         <v/>
@@ -7098,21 +7018,11 @@
         <f>SetPnt_P_2</f>
         <v/>
       </c>
-      <c r="D37" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E37" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="344" t="n">
-        <v>3.5316</v>
-      </c>
-      <c r="G37" s="344" t="n">
-        <v>16.4808</v>
-      </c>
-      <c r="H37" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D37" s="425" t="n"/>
+      <c r="E37" s="344" t="n"/>
+      <c r="F37" s="344" t="n"/>
+      <c r="G37" s="344" t="n"/>
+      <c r="H37" s="426" t="n"/>
       <c r="I37" s="365">
         <f>(H37-$E$27)+$H$2</f>
         <v/>
@@ -7167,21 +7077,11 @@
         <f>SetPnt_P_3</f>
         <v/>
       </c>
-      <c r="D38" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E38" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="344" t="n">
-        <v>3.5316</v>
-      </c>
-      <c r="G38" s="344" t="n">
-        <v>16.4808</v>
-      </c>
-      <c r="H38" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D38" s="425" t="n"/>
+      <c r="E38" s="344" t="n"/>
+      <c r="F38" s="344" t="n"/>
+      <c r="G38" s="344" t="n"/>
+      <c r="H38" s="426" t="n"/>
       <c r="I38" s="365">
         <f>(H38-$E$27)+$H$2</f>
         <v/>
@@ -7236,21 +7136,11 @@
         <f>SetPnt_P_4</f>
         <v/>
       </c>
-      <c r="D39" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E39" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="344" t="n">
-        <v>3.3354</v>
-      </c>
-      <c r="G39" s="344" t="n">
-        <v>16.2846</v>
-      </c>
-      <c r="H39" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D39" s="425" t="n"/>
+      <c r="E39" s="344" t="n"/>
+      <c r="F39" s="344" t="n"/>
+      <c r="G39" s="344" t="n"/>
+      <c r="H39" s="426" t="n"/>
       <c r="I39" s="365">
         <f>(H39-$E$27)+$H$2</f>
         <v/>
@@ -7305,21 +7195,11 @@
         <f>SetPnt_P_5</f>
         <v/>
       </c>
-      <c r="D40" s="425" t="n">
-        <v>837</v>
-      </c>
-      <c r="E40" s="344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="344" t="n">
-        <v>3.5316</v>
-      </c>
-      <c r="G40" s="344" t="n">
-        <v>16.4808</v>
-      </c>
-      <c r="H40" s="426" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D40" s="425" t="n"/>
+      <c r="E40" s="344" t="n"/>
+      <c r="F40" s="344" t="n"/>
+      <c r="G40" s="344" t="n"/>
+      <c r="H40" s="426" t="n"/>
       <c r="I40" s="365">
         <f>(H40-$E$27)+$H$2</f>
         <v/>
@@ -7374,21 +7254,11 @@
         <f>SetPnt_P_0</f>
         <v/>
       </c>
-      <c r="D41" s="423" t="n">
-        <v>837</v>
-      </c>
-      <c r="E41" s="343" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="343" t="n">
-        <v>3.3354</v>
-      </c>
-      <c r="G41" s="343" t="n">
-        <v>16.2846</v>
-      </c>
-      <c r="H41" s="424" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="D41" s="423" t="n"/>
+      <c r="E41" s="343" t="n"/>
+      <c r="F41" s="343" t="n"/>
+      <c r="G41" s="343" t="n"/>
+      <c r="H41" s="424" t="n"/>
       <c r="I41" s="364">
         <f>(H41-$E$27)+$H$2</f>
         <v/>
@@ -8811,7 +8681,7 @@
       <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col width="25.88671875" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
@@ -10402,7 +10272,7 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col width="15.5546875" customWidth="1" min="1" max="1"/>
     <col width="19.6640625" customWidth="1" min="2" max="2"/>
@@ -16625,7 +16495,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col width="14.33203125" customWidth="1" min="1" max="1"/>
     <col width="19.6640625" customWidth="1" min="2" max="2"/>
@@ -22822,7 +22692,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="13.5546875" customWidth="1" min="3" max="3"/>
@@ -23987,7 +23857,7 @@
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col width="3" customWidth="1" min="1" max="1"/>
     <col width="3.5546875" customWidth="1" min="2" max="2"/>
@@ -25496,8 +25366,8 @@
     <mergeCell ref="F16:M16"/>
     <mergeCell ref="G98:H98"/>
     <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G97:H97"/>
     <mergeCell ref="L102:L103"/>
-    <mergeCell ref="G97:H97"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="I70:J70"/>
     <mergeCell ref="I91:J91"/>
